--- a/2024_Informacoes_csf_centralizadas.v01.xlsx
+++ b/2024_Informacoes_csf_centralizadas.v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena.CSFDIGITAL\Documents\Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F4E12C-AD3E-434A-B66A-6D885F2ED343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98077C-B7CF-4445-AE6A-7B033D9A23B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="796" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6438" uniqueCount="3043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6425" uniqueCount="3041">
   <si>
     <t>DC01</t>
   </si>
@@ -9418,16 +9418,10 @@
     <t>Trocas de Bateria em 31/05/2024 8x Elgin 12v9A</t>
   </si>
   <si>
-    <t>slz</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>lorena</t>
-  </si>
-  <si>
-    <t>jordan</t>
+    <t>Modem 4g</t>
+  </si>
+  <si>
+    <t>oii</t>
   </si>
 </sst>
 </file>
@@ -10919,7 +10913,7 @@
     <xf numFmtId="0" fontId="78" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="109" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="565">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12163,18 +12157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -23719,8 +23701,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{3F3D9799-3573-4D36-914E-50B5E6039463}" name="Tabela36" displayName="Tabela36" ref="A1:V76" totalsRowCount="1" headerRowDxfId="236" dataDxfId="235" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:V75" xr:uid="{3F3D9799-3573-4D36-914E-50B5E6039463}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{3F3D9799-3573-4D36-914E-50B5E6039463}" name="Tabela36" displayName="Tabela36" ref="A1:V71" totalsRowCount="1" headerRowDxfId="236" dataDxfId="235" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:V70" xr:uid="{3F3D9799-3573-4D36-914E-50B5E6039463}"/>
   <tableColumns count="22">
     <tableColumn id="3" xr3:uid="{716620F1-F82C-4931-BB55-2C3692F23E7E}" name="FILIAL" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="21" dataCellStyle="Normal"/>
     <tableColumn id="21" xr3:uid="{47708D7E-F6BA-48B7-A79F-15C85978A8A9}" name="SETOR" dataDxfId="233" totalsRowDxfId="20" dataCellStyle="Normal"/>
@@ -24529,28 +24511,28 @@
       <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:8" s="120" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="471" t="s">
+      <c r="A10" s="467" t="s">
         <v>320</v>
       </c>
-      <c r="B10" s="471"/>
-      <c r="C10" s="471"/>
-      <c r="D10" s="471"/>
-      <c r="E10" s="471"/>
-      <c r="F10" s="471"/>
-      <c r="G10" s="471"/>
-      <c r="H10" s="471"/>
+      <c r="B10" s="467"/>
+      <c r="C10" s="467"/>
+      <c r="D10" s="467"/>
+      <c r="E10" s="467"/>
+      <c r="F10" s="467"/>
+      <c r="G10" s="467"/>
+      <c r="H10" s="467"/>
     </row>
     <row r="11" spans="1:8" s="122" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="468" t="s">
+      <c r="A11" s="464" t="s">
         <v>1198</v>
       </c>
-      <c r="B11" s="469"/>
-      <c r="C11" s="469"/>
-      <c r="D11" s="469"/>
-      <c r="E11" s="469"/>
-      <c r="F11" s="469"/>
-      <c r="G11" s="469"/>
-      <c r="H11" s="470"/>
+      <c r="B11" s="465"/>
+      <c r="C11" s="465"/>
+      <c r="D11" s="465"/>
+      <c r="E11" s="465"/>
+      <c r="F11" s="465"/>
+      <c r="G11" s="465"/>
+      <c r="H11" s="466"/>
     </row>
     <row r="12" spans="1:8" s="129" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="121" t="s">
@@ -24677,28 +24659,28 @@
       <c r="H17" s="134"/>
     </row>
     <row r="18" spans="1:8" s="120" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="472" t="s">
+      <c r="A18" s="468" t="s">
         <v>1204</v>
       </c>
-      <c r="B18" s="472"/>
-      <c r="C18" s="472"/>
-      <c r="D18" s="472"/>
-      <c r="E18" s="472"/>
-      <c r="F18" s="472"/>
-      <c r="G18" s="472"/>
-      <c r="H18" s="472"/>
+      <c r="B18" s="468"/>
+      <c r="C18" s="468"/>
+      <c r="D18" s="468"/>
+      <c r="E18" s="468"/>
+      <c r="F18" s="468"/>
+      <c r="G18" s="468"/>
+      <c r="H18" s="468"/>
     </row>
     <row r="19" spans="1:8" s="122" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="468" t="s">
+      <c r="A19" s="464" t="s">
         <v>1205</v>
       </c>
-      <c r="B19" s="469"/>
-      <c r="C19" s="469"/>
-      <c r="D19" s="469"/>
-      <c r="E19" s="469"/>
-      <c r="F19" s="469"/>
-      <c r="G19" s="469"/>
-      <c r="H19" s="470"/>
+      <c r="B19" s="465"/>
+      <c r="C19" s="465"/>
+      <c r="D19" s="465"/>
+      <c r="E19" s="465"/>
+      <c r="F19" s="465"/>
+      <c r="G19" s="465"/>
+      <c r="H19" s="466"/>
     </row>
     <row r="20" spans="1:8" s="129" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="121" t="s">
@@ -24809,42 +24791,42 @@
       <c r="H24" s="134"/>
     </row>
     <row r="25" spans="1:8" s="138" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="473" t="s">
+      <c r="A25" s="469" t="s">
         <v>1212</v>
       </c>
-      <c r="B25" s="472"/>
-      <c r="C25" s="472"/>
-      <c r="D25" s="472"/>
-      <c r="E25" s="472"/>
-      <c r="F25" s="472"/>
-      <c r="G25" s="472"/>
-      <c r="H25" s="474"/>
+      <c r="B25" s="468"/>
+      <c r="C25" s="468"/>
+      <c r="D25" s="468"/>
+      <c r="E25" s="468"/>
+      <c r="F25" s="468"/>
+      <c r="G25" s="468"/>
+      <c r="H25" s="470"/>
     </row>
     <row r="26" spans="1:8" s="122" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="468" t="s">
+      <c r="A26" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="B26" s="469"/>
-      <c r="C26" s="469"/>
-      <c r="D26" s="469"/>
-      <c r="E26" s="469"/>
-      <c r="F26" s="469"/>
-      <c r="G26" s="469"/>
-      <c r="H26" s="470"/>
+      <c r="B26" s="465"/>
+      <c r="C26" s="465"/>
+      <c r="D26" s="465"/>
+      <c r="E26" s="465"/>
+      <c r="F26" s="465"/>
+      <c r="G26" s="465"/>
+      <c r="H26" s="466"/>
     </row>
     <row r="27" spans="1:8" s="129" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="475" t="s">
+      <c r="A27" s="471" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="476"/>
-      <c r="C27" s="477" t="s">
+      <c r="B27" s="472"/>
+      <c r="C27" s="473" t="s">
         <v>325</v>
       </c>
-      <c r="D27" s="478"/>
-      <c r="E27" s="479" t="s">
+      <c r="D27" s="474"/>
+      <c r="E27" s="475" t="s">
         <v>326</v>
       </c>
-      <c r="F27" s="480"/>
+      <c r="F27" s="476"/>
       <c r="G27" s="121" t="s">
         <v>327</v>
       </c>
@@ -24853,18 +24835,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A28" s="475" t="s">
+      <c r="A28" s="471" t="s">
         <v>1214</v>
       </c>
-      <c r="B28" s="476"/>
-      <c r="C28" s="477" t="s">
+      <c r="B28" s="472"/>
+      <c r="C28" s="473" t="s">
         <v>329</v>
       </c>
-      <c r="D28" s="478"/>
-      <c r="E28" s="479" t="s">
+      <c r="D28" s="474"/>
+      <c r="E28" s="475" t="s">
         <v>1215</v>
       </c>
-      <c r="F28" s="480"/>
+      <c r="F28" s="476"/>
       <c r="G28" s="121">
         <v>64346024</v>
       </c>
@@ -24873,30 +24855,30 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="122" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="468" t="s">
+      <c r="A29" s="464" t="s">
         <v>1217</v>
       </c>
-      <c r="B29" s="469"/>
-      <c r="C29" s="469"/>
-      <c r="D29" s="469"/>
-      <c r="E29" s="469"/>
-      <c r="F29" s="469"/>
-      <c r="G29" s="469"/>
-      <c r="H29" s="470"/>
+      <c r="B29" s="465"/>
+      <c r="C29" s="465"/>
+      <c r="D29" s="465"/>
+      <c r="E29" s="465"/>
+      <c r="F29" s="465"/>
+      <c r="G29" s="465"/>
+      <c r="H29" s="466"/>
     </row>
     <row r="30" spans="1:8" s="129" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="475" t="s">
+      <c r="A30" s="471" t="s">
         <v>324</v>
       </c>
-      <c r="B30" s="476"/>
-      <c r="C30" s="477" t="s">
+      <c r="B30" s="472"/>
+      <c r="C30" s="473" t="s">
         <v>325</v>
       </c>
-      <c r="D30" s="478"/>
-      <c r="E30" s="479" t="s">
+      <c r="D30" s="474"/>
+      <c r="E30" s="475" t="s">
         <v>326</v>
       </c>
-      <c r="F30" s="480"/>
+      <c r="F30" s="476"/>
       <c r="G30" s="121" t="s">
         <v>327</v>
       </c>
@@ -24905,18 +24887,18 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A31" s="475" t="s">
+      <c r="A31" s="471" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="476"/>
-      <c r="C31" s="477" t="s">
+      <c r="B31" s="472"/>
+      <c r="C31" s="473" t="s">
         <v>331</v>
       </c>
-      <c r="D31" s="478"/>
-      <c r="E31" s="479" t="s">
+      <c r="D31" s="474"/>
+      <c r="E31" s="475" t="s">
         <v>332</v>
       </c>
-      <c r="F31" s="480"/>
+      <c r="F31" s="476"/>
       <c r="G31" s="121" t="s">
         <v>333</v>
       </c>
@@ -24925,30 +24907,30 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="122" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="468" t="s">
+      <c r="A32" s="464" t="s">
         <v>1219</v>
       </c>
-      <c r="B32" s="469"/>
-      <c r="C32" s="469"/>
-      <c r="D32" s="469"/>
-      <c r="E32" s="469"/>
-      <c r="F32" s="469"/>
-      <c r="G32" s="469"/>
-      <c r="H32" s="470"/>
+      <c r="B32" s="465"/>
+      <c r="C32" s="465"/>
+      <c r="D32" s="465"/>
+      <c r="E32" s="465"/>
+      <c r="F32" s="465"/>
+      <c r="G32" s="465"/>
+      <c r="H32" s="466"/>
     </row>
     <row r="33" spans="1:8" s="129" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="475" t="s">
+      <c r="A33" s="471" t="s">
         <v>324</v>
       </c>
-      <c r="B33" s="476"/>
-      <c r="C33" s="477" t="s">
+      <c r="B33" s="472"/>
+      <c r="C33" s="473" t="s">
         <v>325</v>
       </c>
-      <c r="D33" s="478"/>
-      <c r="E33" s="479" t="s">
+      <c r="D33" s="474"/>
+      <c r="E33" s="475" t="s">
         <v>326</v>
       </c>
-      <c r="F33" s="480"/>
+      <c r="F33" s="476"/>
       <c r="G33" s="121" t="s">
         <v>327</v>
       </c>
@@ -24957,18 +24939,18 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="48" customHeight="1">
-      <c r="A34" s="475" t="s">
+      <c r="A34" s="471" t="s">
         <v>334</v>
       </c>
-      <c r="B34" s="476"/>
-      <c r="C34" s="477" t="s">
+      <c r="B34" s="472"/>
+      <c r="C34" s="473" t="s">
         <v>335</v>
       </c>
-      <c r="D34" s="478"/>
-      <c r="E34" s="479" t="s">
+      <c r="D34" s="474"/>
+      <c r="E34" s="475" t="s">
         <v>336</v>
       </c>
-      <c r="F34" s="480"/>
+      <c r="F34" s="476"/>
       <c r="G34" s="121" t="s">
         <v>337</v>
       </c>
@@ -24977,57 +24959,57 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A35" s="468" t="s">
+      <c r="A35" s="464" t="s">
         <v>1220</v>
       </c>
-      <c r="B35" s="469"/>
-      <c r="C35" s="469"/>
-      <c r="D35" s="469"/>
-      <c r="E35" s="469"/>
-      <c r="F35" s="469"/>
+      <c r="B35" s="465"/>
+      <c r="C35" s="465"/>
+      <c r="D35" s="465"/>
+      <c r="E35" s="465"/>
+      <c r="F35" s="465"/>
       <c r="H35" s="128"/>
     </row>
     <row r="36" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A36" s="477" t="s">
+      <c r="A36" s="473" t="s">
         <v>1221</v>
       </c>
-      <c r="B36" s="478"/>
-      <c r="C36" s="477" t="s">
+      <c r="B36" s="474"/>
+      <c r="C36" s="473" t="s">
         <v>1222</v>
       </c>
-      <c r="D36" s="478"/>
-      <c r="E36" s="483" t="s">
+      <c r="D36" s="474"/>
+      <c r="E36" s="479" t="s">
         <v>398</v>
       </c>
-      <c r="F36" s="484"/>
+      <c r="F36" s="480"/>
       <c r="H36" s="128"/>
     </row>
     <row r="37" spans="1:8" ht="48" customHeight="1">
-      <c r="A37" s="477" t="s">
+      <c r="A37" s="473" t="s">
         <v>1223</v>
       </c>
-      <c r="B37" s="478"/>
-      <c r="C37" s="477" t="s">
+      <c r="B37" s="474"/>
+      <c r="C37" s="473" t="s">
         <v>1224</v>
       </c>
-      <c r="D37" s="478"/>
-      <c r="E37" s="485" t="s">
+      <c r="D37" s="474"/>
+      <c r="E37" s="481" t="s">
         <v>1225</v>
       </c>
-      <c r="F37" s="485"/>
+      <c r="F37" s="481"/>
       <c r="H37" s="128"/>
     </row>
     <row r="38" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A38" s="481" t="s">
+      <c r="A38" s="477" t="s">
         <v>1226</v>
       </c>
-      <c r="B38" s="481"/>
-      <c r="C38" s="481"/>
-      <c r="D38" s="481"/>
-      <c r="E38" s="481"/>
-      <c r="F38" s="481"/>
-      <c r="G38" s="482"/>
-      <c r="H38" s="482"/>
+      <c r="B38" s="477"/>
+      <c r="C38" s="477"/>
+      <c r="D38" s="477"/>
+      <c r="E38" s="477"/>
+      <c r="F38" s="477"/>
+      <c r="G38" s="478"/>
+      <c r="H38" s="478"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -25107,15 +25089,15 @@
       <c r="H1" s="300"/>
     </row>
     <row r="2" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B2" s="558" t="s">
+      <c r="B2" s="554" t="s">
         <v>2128</v>
       </c>
-      <c r="C2" s="558"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="558"/>
-      <c r="F2" s="558"/>
-      <c r="G2" s="558"/>
-      <c r="H2" s="558"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="554"/>
+      <c r="E2" s="554"/>
+      <c r="F2" s="554"/>
+      <c r="G2" s="554"/>
+      <c r="H2" s="554"/>
     </row>
     <row r="3" spans="2:8" ht="18.75" customHeight="1">
       <c r="B3" s="301" t="s">
@@ -32316,10 +32298,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -33349,7 +33331,9 @@
     </row>
     <row r="19" spans="1:20">
       <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="57" t="s">
+        <v>3040</v>
+      </c>
       <c r="D19" s="57" t="s">
         <v>2807</v>
       </c>
@@ -35491,7 +35475,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:20">
       <c r="A65" s="23" t="s">
         <v>1417</v>
       </c>
@@ -35534,7 +35518,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:20">
       <c r="A66" s="23" t="s">
         <v>1417</v>
       </c>
@@ -35569,7 +35553,7 @@
       </c>
       <c r="T66" s="448"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:20">
       <c r="A67" s="23" t="s">
         <v>1417</v>
       </c>
@@ -35614,7 +35598,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:20">
       <c r="A68" s="23" t="s">
         <v>1418</v>
       </c>
@@ -35622,7 +35606,7 @@
         <v>2906</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>2907</v>
+        <v>3039</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>2907</v>
@@ -35646,7 +35630,7 @@
       </c>
       <c r="T68" s="448"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:20">
       <c r="A69" s="23" t="s">
         <v>1418</v>
       </c>
@@ -35678,7 +35662,7 @@
       </c>
       <c r="T69" s="448"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:20">
       <c r="A70" s="23" t="s">
         <v>1418</v>
       </c>
@@ -35710,173 +35694,34 @@
       </c>
       <c r="T70" s="448"/>
     </row>
-    <row r="71" spans="1:22">
-      <c r="B71" s="57"/>
+    <row r="71" spans="1:20">
+      <c r="A71" s="23">
+        <f>SUBTOTAL(103,Tabela36[FILIAL])</f>
+        <v>68</v>
+      </c>
       <c r="C71" s="57"/>
       <c r="D71" s="57"/>
-      <c r="E71" s="449"/>
-      <c r="F71" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G71" s="455" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://api.whatsapp.com/send?phone=55",Tabela36[[#This Row],[DDD / LINHA]]),"WhatsApp")</f>
-        <v>WhatsApp</v>
-      </c>
-      <c r="H71" s="450"/>
+      <c r="E71" s="23">
+        <f>SUBTOTAL(103,Tabela36[DDD / LINHA])</f>
+        <v>67</v>
+      </c>
       <c r="N71" s="447"/>
       <c r="O71" s="447"/>
       <c r="P71" s="447"/>
       <c r="Q71" s="447"/>
-      <c r="R71" s="447" t="s">
-        <v>3005</v>
-      </c>
-      <c r="T71" s="448"/>
-    </row>
-    <row r="72" spans="1:22">
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="449">
-        <v>98992037453</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G72" s="455" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://api.whatsapp.com/send?phone=55",Tabela36[[#This Row],[DDD / LINHA]]),"WhatsApp")</f>
-        <v>WhatsApp</v>
-      </c>
-      <c r="H72" s="450"/>
-      <c r="N72" s="447"/>
-      <c r="O72" s="447"/>
-      <c r="P72" s="447"/>
-      <c r="Q72" s="447"/>
-      <c r="R72" s="447" t="s">
-        <v>3005</v>
-      </c>
-      <c r="T72" s="448"/>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="449">
-        <v>98992249832</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G73" s="455" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://api.whatsapp.com/send?phone=55",Tabela36[[#This Row],[DDD / LINHA]]),"WhatsApp")</f>
-        <v>WhatsApp</v>
-      </c>
-      <c r="H73" s="450"/>
-      <c r="N73" s="447"/>
-      <c r="O73" s="447"/>
-      <c r="P73" s="447"/>
-      <c r="Q73" s="447"/>
-      <c r="R73" s="447" t="s">
-        <v>3005</v>
-      </c>
-      <c r="T73" s="448"/>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="464" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B74" s="465" t="s">
-        <v>3040</v>
-      </c>
-      <c r="C74" s="465" t="s">
-        <v>3041</v>
-      </c>
-      <c r="D74" s="465"/>
-      <c r="E74" s="449">
-        <v>98992249832</v>
-      </c>
-      <c r="F74" s="464"/>
-      <c r="G74" s="456" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://api.whatsapp.com/send?phone=55",Tabela36[[#This Row],[DDD / LINHA]]),"WhatsApp")</f>
-        <v>WhatsApp</v>
-      </c>
-      <c r="H74" s="466"/>
-      <c r="I74" s="464"/>
-      <c r="J74" s="464"/>
-      <c r="K74" s="464"/>
-      <c r="L74" s="464"/>
-      <c r="M74" s="464"/>
-      <c r="N74" s="467"/>
-      <c r="O74" s="447"/>
-      <c r="P74" s="447"/>
-      <c r="Q74" s="447" t="str">
-        <f>Tabela36[[#This Row],[Abreviação]]&amp;"@gmail.com"</f>
-        <v>@gmail.com</v>
-      </c>
-      <c r="R74" s="447"/>
-      <c r="S74" s="464"/>
-      <c r="T74" s="448"/>
-      <c r="U74" s="464"/>
-      <c r="V74" s="464"/>
-    </row>
-    <row r="75" spans="1:22">
-      <c r="A75" s="23" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B75" s="57" t="s">
-        <v>3040</v>
-      </c>
-      <c r="C75" s="57" t="s">
-        <v>3042</v>
-      </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="449">
-        <v>99982280015</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G75" s="455" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://api.whatsapp.com/send?phone=55",Tabela36[[#This Row],[DDD / LINHA]]),"WhatsApp")</f>
-        <v>WhatsApp</v>
-      </c>
-      <c r="H75" s="450"/>
-      <c r="N75" s="447"/>
-      <c r="O75" s="447"/>
-      <c r="P75" s="447"/>
-      <c r="Q75" s="447"/>
-      <c r="R75" s="447" t="s">
-        <v>3005</v>
-      </c>
-      <c r="T75" s="448"/>
-    </row>
-    <row r="76" spans="1:22">
-      <c r="A76" s="23">
-        <f>SUBTOTAL(103,Tabela36[FILIAL])</f>
-        <v>70</v>
-      </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="23">
-        <f>SUBTOTAL(103,Tabela36[DDD / LINHA])</f>
-        <v>71</v>
-      </c>
-      <c r="N76" s="447"/>
-      <c r="O76" s="447"/>
-      <c r="P76" s="447"/>
-      <c r="Q76" s="447"/>
-      <c r="R76" s="447"/>
-      <c r="T76" s="452">
+      <c r="R71" s="447"/>
+      <c r="T71" s="452">
         <f>SUBTOTAL(109,Tabela36[PLANO VALOR])</f>
         <v>2593.5000000000032</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="75" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E18 E20:E75">
-    <cfRule type="duplicateValues" dxfId="238" priority="6"/>
+  <conditionalFormatting sqref="E2:E18 E20:E70">
+    <cfRule type="duplicateValues" dxfId="238" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E75">
-    <cfRule type="duplicateValues" dxfId="237" priority="1"/>
+  <conditionalFormatting sqref="E2:E70">
+    <cfRule type="duplicateValues" dxfId="237" priority="24"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O7" r:id="rId1" xr:uid="{5B831640-58F2-4121-98EF-237459839126}"/>
@@ -40990,24 +40835,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="502" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="508"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="504"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="487" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A3" s="5" t="s">
@@ -41030,7 +40875,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1">
-      <c r="A4" s="502" t="s">
+      <c r="A4" s="498" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -41048,7 +40893,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="23" customFormat="1">
-      <c r="A5" s="503"/>
+      <c r="A5" s="499"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
@@ -41064,7 +40909,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="23" customFormat="1">
-      <c r="A6" s="503"/>
+      <c r="A6" s="499"/>
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
@@ -41080,7 +40925,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1">
-      <c r="A7" s="503"/>
+      <c r="A7" s="499"/>
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -41092,7 +40937,7 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" s="8" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A8" s="503"/>
+      <c r="A8" s="499"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -41104,14 +40949,14 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="491" t="s">
+      <c r="A9" s="487" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="491"/>
-      <c r="C9" s="491"/>
-      <c r="D9" s="491"/>
-      <c r="E9" s="491"/>
-      <c r="F9" s="491"/>
+      <c r="B9" s="487"/>
+      <c r="C9" s="487"/>
+      <c r="D9" s="487"/>
+      <c r="E9" s="487"/>
+      <c r="F9" s="487"/>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A10" s="5" t="s">
@@ -41134,7 +40979,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="8" customFormat="1">
-      <c r="A11" s="501" t="s">
+      <c r="A11" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -41152,7 +40997,7 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" s="23" customFormat="1">
-      <c r="A12" s="501"/>
+      <c r="A12" s="497"/>
       <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
@@ -41180,7 +41025,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" s="23" customFormat="1">
-      <c r="A14" s="501" t="s">
+      <c r="A14" s="497" t="s">
         <v>208</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -41198,7 +41043,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1">
-      <c r="A15" s="501"/>
+      <c r="A15" s="497"/>
       <c r="B15" s="9" t="s">
         <v>46</v>
       </c>
@@ -41214,7 +41059,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" s="8" customFormat="1" ht="33">
-      <c r="A16" s="502" t="s">
+      <c r="A16" s="498" t="s">
         <v>736</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -41232,7 +41077,7 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1">
-      <c r="A17" s="503"/>
+      <c r="A17" s="499"/>
       <c r="B17" s="9" t="s">
         <v>737</v>
       </c>
@@ -41248,7 +41093,7 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1">
-      <c r="A18" s="509"/>
+      <c r="A18" s="505"/>
       <c r="B18" s="9" t="s">
         <v>583</v>
       </c>
@@ -41476,7 +41321,7 @@
       <c r="F31" s="56"/>
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1">
-      <c r="A32" s="501" t="s">
+      <c r="A32" s="497" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9"/>
@@ -41492,7 +41337,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" s="23" customFormat="1">
-      <c r="A33" s="501"/>
+      <c r="A33" s="497"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
         <v>58</v>
@@ -41504,7 +41349,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" s="23" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A34" s="501"/>
+      <c r="A34" s="497"/>
       <c r="B34" s="9" t="s">
         <v>1123</v>
       </c>
@@ -41518,14 +41363,14 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A35" s="491" t="s">
+      <c r="A35" s="487" t="s">
         <v>570</v>
       </c>
-      <c r="B35" s="491"/>
-      <c r="C35" s="491"/>
-      <c r="D35" s="491"/>
-      <c r="E35" s="491"/>
-      <c r="F35" s="491"/>
+      <c r="B35" s="487"/>
+      <c r="C35" s="487"/>
+      <c r="D35" s="487"/>
+      <c r="E35" s="487"/>
+      <c r="F35" s="487"/>
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A36" s="5" t="s">
@@ -41548,7 +41393,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="8" customFormat="1">
-      <c r="A37" s="501" t="s">
+      <c r="A37" s="497" t="s">
         <v>578</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -41566,7 +41411,7 @@
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" s="8" customFormat="1">
-      <c r="A38" s="501"/>
+      <c r="A38" s="497"/>
       <c r="B38" s="9" t="s">
         <v>879</v>
       </c>
@@ -41582,7 +41427,7 @@
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" s="23" customFormat="1">
-      <c r="A39" s="501"/>
+      <c r="A39" s="497"/>
       <c r="B39" s="9" t="s">
         <v>573</v>
       </c>
@@ -41630,14 +41475,14 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A42" s="491" t="s">
+      <c r="A42" s="487" t="s">
         <v>755</v>
       </c>
-      <c r="B42" s="491"/>
-      <c r="C42" s="491"/>
-      <c r="D42" s="491"/>
-      <c r="E42" s="491"/>
-      <c r="F42" s="491"/>
+      <c r="B42" s="487"/>
+      <c r="C42" s="487"/>
+      <c r="D42" s="487"/>
+      <c r="E42" s="487"/>
+      <c r="F42" s="487"/>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A43" s="5" t="s">
@@ -41692,14 +41537,14 @@
       <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A46" s="500" t="s">
+      <c r="A46" s="496" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="491"/>
-      <c r="C46" s="491"/>
-      <c r="D46" s="491"/>
-      <c r="E46" s="491"/>
-      <c r="F46" s="492"/>
+      <c r="B46" s="487"/>
+      <c r="C46" s="487"/>
+      <c r="D46" s="487"/>
+      <c r="E46" s="487"/>
+      <c r="F46" s="488"/>
     </row>
     <row r="47" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A47" s="5" t="s">
@@ -41722,7 +41567,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="8" customFormat="1">
-      <c r="A48" s="510" t="s">
+      <c r="A48" s="506" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -41738,7 +41583,7 @@
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" s="4" customFormat="1">
-      <c r="A49" s="510"/>
+      <c r="A49" s="506"/>
       <c r="B49" s="9" t="s">
         <v>62</v>
       </c>
@@ -41754,7 +41599,7 @@
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" s="8" customFormat="1">
-      <c r="A50" s="510"/>
+      <c r="A50" s="506"/>
       <c r="B50" s="9" t="s">
         <v>68</v>
       </c>
@@ -41770,7 +41615,7 @@
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1">
-      <c r="A51" s="510"/>
+      <c r="A51" s="506"/>
       <c r="B51" s="9" t="s">
         <v>68</v>
       </c>
@@ -41786,7 +41631,7 @@
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" s="8" customFormat="1">
-      <c r="A52" s="510"/>
+      <c r="A52" s="506"/>
       <c r="B52" s="9" t="s">
         <v>71</v>
       </c>
@@ -41802,7 +41647,7 @@
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" s="4" customFormat="1">
-      <c r="A53" s="510"/>
+      <c r="A53" s="506"/>
       <c r="B53" s="9" t="s">
         <v>74</v>
       </c>
@@ -41818,7 +41663,7 @@
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1" ht="33">
-      <c r="A54" s="510"/>
+      <c r="A54" s="506"/>
       <c r="B54" s="9" t="s">
         <v>544</v>
       </c>
@@ -41834,7 +41679,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" s="8" customFormat="1">
-      <c r="A55" s="510"/>
+      <c r="A55" s="506"/>
       <c r="B55" s="9" t="s">
         <v>77</v>
       </c>
@@ -41850,7 +41695,7 @@
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1">
-      <c r="A56" s="510"/>
+      <c r="A56" s="506"/>
       <c r="B56" s="9" t="s">
         <v>1231</v>
       </c>
@@ -41866,7 +41711,7 @@
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" s="8" customFormat="1">
-      <c r="A57" s="510"/>
+      <c r="A57" s="506"/>
       <c r="B57" s="9" t="s">
         <v>845</v>
       </c>
@@ -41882,14 +41727,14 @@
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A58" s="505" t="s">
+      <c r="A58" s="501" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="498"/>
-      <c r="C58" s="498"/>
-      <c r="D58" s="498"/>
-      <c r="E58" s="498"/>
-      <c r="F58" s="499"/>
+      <c r="B58" s="494"/>
+      <c r="C58" s="494"/>
+      <c r="D58" s="494"/>
+      <c r="E58" s="494"/>
+      <c r="F58" s="495"/>
     </row>
     <row r="59" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A59" s="5" t="s">
@@ -41912,7 +41757,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="8" customFormat="1">
-      <c r="A60" s="501"/>
+      <c r="A60" s="497"/>
       <c r="B60" s="9" t="s">
         <v>80</v>
       </c>
@@ -41926,7 +41771,7 @@
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" s="8" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A61" s="501"/>
+      <c r="A61" s="497"/>
       <c r="B61" s="9" t="s">
         <v>83</v>
       </c>
@@ -41942,14 +41787,14 @@
       <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A62" s="491" t="s">
+      <c r="A62" s="487" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="491"/>
-      <c r="C62" s="491"/>
-      <c r="D62" s="491"/>
-      <c r="E62" s="491"/>
-      <c r="F62" s="491"/>
+      <c r="B62" s="487"/>
+      <c r="C62" s="487"/>
+      <c r="D62" s="487"/>
+      <c r="E62" s="487"/>
+      <c r="F62" s="487"/>
     </row>
     <row r="63" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A63" s="5" t="s">
@@ -41982,14 +41827,14 @@
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A65" s="491" t="s">
+      <c r="A65" s="487" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="491"/>
-      <c r="C65" s="491"/>
-      <c r="D65" s="491"/>
-      <c r="E65" s="491"/>
-      <c r="F65" s="491"/>
+      <c r="B65" s="487"/>
+      <c r="C65" s="487"/>
+      <c r="D65" s="487"/>
+      <c r="E65" s="487"/>
+      <c r="F65" s="487"/>
     </row>
     <row r="66" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A66" s="5" t="s">
@@ -42060,14 +41905,14 @@
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A71" s="491" t="s">
+      <c r="A71" s="487" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="491"/>
-      <c r="C71" s="491"/>
-      <c r="D71" s="491"/>
-      <c r="E71" s="491"/>
-      <c r="F71" s="491"/>
+      <c r="B71" s="487"/>
+      <c r="C71" s="487"/>
+      <c r="D71" s="487"/>
+      <c r="E71" s="487"/>
+      <c r="F71" s="487"/>
     </row>
     <row r="72" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A72" s="5" t="s">
@@ -42090,7 +41935,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" s="8" customFormat="1">
-      <c r="A73" s="514" t="s">
+      <c r="A73" s="510" t="s">
         <v>92</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -42106,7 +41951,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="4" customFormat="1">
-      <c r="A74" s="510"/>
+      <c r="A74" s="506"/>
       <c r="B74" s="9" t="s">
         <v>95</v>
       </c>
@@ -42122,7 +41967,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" s="8" customFormat="1">
-      <c r="A75" s="510"/>
+      <c r="A75" s="506"/>
       <c r="B75" s="9" t="s">
         <v>98</v>
       </c>
@@ -42138,7 +41983,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" s="8" customFormat="1">
-      <c r="A76" s="510"/>
+      <c r="A76" s="506"/>
       <c r="B76" s="9" t="s">
         <v>101</v>
       </c>
@@ -42156,7 +42001,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" s="4" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A77" s="510"/>
+      <c r="A77" s="506"/>
       <c r="B77" s="9" t="s">
         <v>105</v>
       </c>
@@ -42168,14 +42013,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A78" s="500" t="s">
+      <c r="A78" s="496" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="491"/>
-      <c r="C78" s="491"/>
-      <c r="D78" s="491"/>
-      <c r="E78" s="491"/>
-      <c r="F78" s="492"/>
+      <c r="B78" s="487"/>
+      <c r="C78" s="487"/>
+      <c r="D78" s="487"/>
+      <c r="E78" s="487"/>
+      <c r="F78" s="488"/>
     </row>
     <row r="79" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A79" s="17" t="s">
@@ -42208,14 +42053,14 @@
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A81" s="500" t="s">
+      <c r="A81" s="496" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="491"/>
-      <c r="C81" s="491"/>
-      <c r="D81" s="491"/>
-      <c r="E81" s="491"/>
-      <c r="F81" s="492"/>
+      <c r="B81" s="487"/>
+      <c r="C81" s="487"/>
+      <c r="D81" s="487"/>
+      <c r="E81" s="487"/>
+      <c r="F81" s="488"/>
     </row>
     <row r="82" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A82" s="17" t="s">
@@ -42248,14 +42093,14 @@
       <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A84" s="491" t="s">
+      <c r="A84" s="487" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="491"/>
-      <c r="C84" s="491"/>
-      <c r="D84" s="491"/>
-      <c r="E84" s="491"/>
-      <c r="F84" s="491"/>
+      <c r="B84" s="487"/>
+      <c r="C84" s="487"/>
+      <c r="D84" s="487"/>
+      <c r="E84" s="487"/>
+      <c r="F84" s="487"/>
     </row>
     <row r="85" spans="1:6" s="4" customFormat="1" ht="15">
       <c r="A85" s="5" t="s">
@@ -42278,13 +42123,13 @@
       </c>
     </row>
     <row r="86" spans="1:6" s="8" customFormat="1">
-      <c r="A86" s="501" t="s">
+      <c r="A86" s="497" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="519" t="s">
+      <c r="B86" s="515" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="519" t="s">
+      <c r="C86" s="515" t="s">
         <v>84</v>
       </c>
       <c r="D86" s="9" t="s">
@@ -42294,9 +42139,9 @@
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6" s="8" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A87" s="502"/>
-      <c r="B87" s="517"/>
-      <c r="C87" s="517"/>
+      <c r="A87" s="498"/>
+      <c r="B87" s="513"/>
+      <c r="C87" s="513"/>
       <c r="D87" s="14" t="s">
         <v>113</v>
       </c>
@@ -42304,14 +42149,14 @@
       <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A88" s="500" t="s">
+      <c r="A88" s="496" t="s">
         <v>211</v>
       </c>
-      <c r="B88" s="491"/>
-      <c r="C88" s="491"/>
-      <c r="D88" s="491"/>
-      <c r="E88" s="491"/>
-      <c r="F88" s="492"/>
+      <c r="B88" s="487"/>
+      <c r="C88" s="487"/>
+      <c r="D88" s="487"/>
+      <c r="E88" s="487"/>
+      <c r="F88" s="488"/>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="15">
       <c r="A89" s="5" t="s">
@@ -42334,7 +42179,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" s="8" customFormat="1">
-      <c r="A90" s="511" t="s">
+      <c r="A90" s="507" t="s">
         <v>212</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -42352,7 +42197,7 @@
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="1:6" s="8" customFormat="1">
-      <c r="A91" s="512"/>
+      <c r="A91" s="508"/>
       <c r="B91" s="9" t="s">
         <v>117</v>
       </c>
@@ -42368,7 +42213,7 @@
       <c r="F91" s="58"/>
     </row>
     <row r="92" spans="1:6" s="8" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A92" s="513"/>
+      <c r="A92" s="509"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -42376,14 +42221,14 @@
       <c r="F92" s="57"/>
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A93" s="500" t="s">
+      <c r="A93" s="496" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="498"/>
-      <c r="C93" s="498"/>
-      <c r="D93" s="498"/>
-      <c r="E93" s="498"/>
-      <c r="F93" s="492"/>
+      <c r="B93" s="494"/>
+      <c r="C93" s="494"/>
+      <c r="D93" s="494"/>
+      <c r="E93" s="494"/>
+      <c r="F93" s="488"/>
     </row>
     <row r="94" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A94" s="5" t="s">
@@ -42406,7 +42251,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" s="8" customFormat="1">
-      <c r="A95" s="501"/>
+      <c r="A95" s="497"/>
       <c r="B95" s="9" t="s">
         <v>810</v>
       </c>
@@ -42422,7 +42267,7 @@
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:6" s="8" customFormat="1">
-      <c r="A96" s="502"/>
+      <c r="A96" s="498"/>
       <c r="B96" s="14" t="s">
         <v>807</v>
       </c>
@@ -42450,14 +42295,14 @@
       <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A98" s="490" t="s">
+      <c r="A98" s="486" t="s">
         <v>1128</v>
       </c>
-      <c r="B98" s="491"/>
-      <c r="C98" s="491"/>
-      <c r="D98" s="498"/>
-      <c r="E98" s="498"/>
-      <c r="F98" s="492"/>
+      <c r="B98" s="487"/>
+      <c r="C98" s="487"/>
+      <c r="D98" s="494"/>
+      <c r="E98" s="494"/>
+      <c r="F98" s="488"/>
     </row>
     <row r="99" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A99" s="17" t="s">
@@ -42483,10 +42328,10 @@
       <c r="A100" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="515" t="s">
+      <c r="B100" s="511" t="s">
         <v>1125</v>
       </c>
-      <c r="C100" s="516"/>
+      <c r="C100" s="512"/>
       <c r="D100" s="110" t="s">
         <v>1124</v>
       </c>
@@ -42497,23 +42342,23 @@
       <c r="A101" s="22" t="s">
         <v>1127</v>
       </c>
-      <c r="B101" s="515" t="s">
+      <c r="B101" s="511" t="s">
         <v>1126</v>
       </c>
-      <c r="C101" s="516"/>
+      <c r="C101" s="512"/>
       <c r="D101" s="110"/>
       <c r="E101" s="47"/>
       <c r="F101" s="10"/>
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A102" s="500" t="s">
+      <c r="A102" s="496" t="s">
         <v>868</v>
       </c>
-      <c r="B102" s="491"/>
-      <c r="C102" s="491"/>
-      <c r="D102" s="491"/>
-      <c r="E102" s="491"/>
-      <c r="F102" s="492"/>
+      <c r="B102" s="487"/>
+      <c r="C102" s="487"/>
+      <c r="D102" s="487"/>
+      <c r="E102" s="487"/>
+      <c r="F102" s="488"/>
     </row>
     <row r="103" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A103" s="17" t="s">
@@ -42536,7 +42381,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" s="8" customFormat="1" ht="30">
-      <c r="A104" s="517" t="s">
+      <c r="A104" s="513" t="s">
         <v>816</v>
       </c>
       <c r="B104" s="108" t="s">
@@ -42552,7 +42397,7 @@
       <c r="F104" s="10"/>
     </row>
     <row r="105" spans="1:6" s="8" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A105" s="518"/>
+      <c r="A105" s="514"/>
       <c r="B105" s="53" t="s">
         <v>814</v>
       </c>
@@ -42564,14 +42409,14 @@
       <c r="F105" s="16"/>
     </row>
     <row r="106" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A106" s="500" t="s">
+      <c r="A106" s="496" t="s">
         <v>122</v>
       </c>
-      <c r="B106" s="491"/>
-      <c r="C106" s="491"/>
-      <c r="D106" s="491"/>
-      <c r="E106" s="491"/>
-      <c r="F106" s="492"/>
+      <c r="B106" s="487"/>
+      <c r="C106" s="487"/>
+      <c r="D106" s="487"/>
+      <c r="E106" s="487"/>
+      <c r="F106" s="488"/>
     </row>
     <row r="107" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A107" s="17" t="s">
@@ -42612,14 +42457,14 @@
       </c>
     </row>
     <row r="109" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A109" s="500" t="s">
+      <c r="A109" s="496" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="491"/>
-      <c r="C109" s="491"/>
-      <c r="D109" s="491"/>
-      <c r="E109" s="491"/>
-      <c r="F109" s="492"/>
+      <c r="B109" s="487"/>
+      <c r="C109" s="487"/>
+      <c r="D109" s="487"/>
+      <c r="E109" s="487"/>
+      <c r="F109" s="488"/>
     </row>
     <row r="110" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A110" s="5" t="s">
@@ -42642,7 +42487,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" s="8" customFormat="1">
-      <c r="A111" s="501"/>
+      <c r="A111" s="497"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9" t="s">
@@ -42652,7 +42497,7 @@
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A112" s="502"/>
+      <c r="A112" s="498"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14" t="s">
@@ -42662,14 +42507,14 @@
       <c r="F112" s="16"/>
     </row>
     <row r="113" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A113" s="500" t="s">
+      <c r="A113" s="496" t="s">
         <v>130</v>
       </c>
-      <c r="B113" s="491"/>
-      <c r="C113" s="491"/>
-      <c r="D113" s="491"/>
-      <c r="E113" s="491"/>
-      <c r="F113" s="492"/>
+      <c r="B113" s="487"/>
+      <c r="C113" s="487"/>
+      <c r="D113" s="487"/>
+      <c r="E113" s="487"/>
+      <c r="F113" s="488"/>
     </row>
     <row r="114" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A114" s="5" t="s">
@@ -42706,14 +42551,14 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A116" s="500" t="s">
+      <c r="A116" s="496" t="s">
         <v>134</v>
       </c>
-      <c r="B116" s="491"/>
-      <c r="C116" s="491"/>
-      <c r="D116" s="491"/>
-      <c r="E116" s="491"/>
-      <c r="F116" s="492"/>
+      <c r="B116" s="487"/>
+      <c r="C116" s="487"/>
+      <c r="D116" s="487"/>
+      <c r="E116" s="487"/>
+      <c r="F116" s="488"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="5" t="s">
@@ -42748,14 +42593,14 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A119" s="500" t="s">
+      <c r="A119" s="496" t="s">
         <v>1133</v>
       </c>
-      <c r="B119" s="491"/>
-      <c r="C119" s="491"/>
-      <c r="D119" s="491"/>
-      <c r="E119" s="491"/>
-      <c r="F119" s="492"/>
+      <c r="B119" s="487"/>
+      <c r="C119" s="487"/>
+      <c r="D119" s="487"/>
+      <c r="E119" s="487"/>
+      <c r="F119" s="488"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="5" t="s">
@@ -42812,14 +42657,14 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A123" s="500" t="s">
+      <c r="A123" s="496" t="s">
         <v>804</v>
       </c>
-      <c r="B123" s="491"/>
-      <c r="C123" s="491"/>
-      <c r="D123" s="491"/>
-      <c r="E123" s="491"/>
-      <c r="F123" s="492"/>
+      <c r="B123" s="487"/>
+      <c r="C123" s="487"/>
+      <c r="D123" s="487"/>
+      <c r="E123" s="487"/>
+      <c r="F123" s="488"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="5" t="s">
@@ -42854,14 +42699,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A126" s="500" t="s">
+      <c r="A126" s="496" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="491"/>
-      <c r="C126" s="491"/>
-      <c r="D126" s="491"/>
-      <c r="E126" s="491"/>
-      <c r="F126" s="492"/>
+      <c r="B126" s="487"/>
+      <c r="C126" s="487"/>
+      <c r="D126" s="487"/>
+      <c r="E126" s="487"/>
+      <c r="F126" s="488"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="5" t="s">
@@ -42884,7 +42729,7 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="502"/>
+      <c r="A128" s="498"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -42894,7 +42739,7 @@
       <c r="F128" s="10"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="503"/>
+      <c r="A129" s="499"/>
       <c r="B129" s="9" t="s">
         <v>140</v>
       </c>
@@ -42912,7 +42757,7 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="503"/>
+      <c r="A130" s="499"/>
       <c r="B130" s="9" t="s">
         <v>144</v>
       </c>
@@ -42930,7 +42775,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A131" s="504"/>
+      <c r="A131" s="500"/>
       <c r="B131" s="9" t="s">
         <v>148</v>
       </c>
@@ -42948,14 +42793,14 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A132" s="500" t="s">
+      <c r="A132" s="496" t="s">
         <v>153</v>
       </c>
-      <c r="B132" s="491"/>
-      <c r="C132" s="491"/>
-      <c r="D132" s="491"/>
-      <c r="E132" s="491"/>
-      <c r="F132" s="492"/>
+      <c r="B132" s="487"/>
+      <c r="C132" s="487"/>
+      <c r="D132" s="487"/>
+      <c r="E132" s="487"/>
+      <c r="F132" s="488"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="5" t="s">
@@ -42986,14 +42831,14 @@
       <c r="F134" s="10"/>
     </row>
     <row r="135" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A135" s="500" t="s">
+      <c r="A135" s="496" t="s">
         <v>154</v>
       </c>
-      <c r="B135" s="491"/>
-      <c r="C135" s="491"/>
-      <c r="D135" s="491"/>
-      <c r="E135" s="491"/>
-      <c r="F135" s="492"/>
+      <c r="B135" s="487"/>
+      <c r="C135" s="487"/>
+      <c r="D135" s="487"/>
+      <c r="E135" s="487"/>
+      <c r="F135" s="488"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
@@ -43030,14 +42875,14 @@
       <c r="F137" s="10"/>
     </row>
     <row r="138" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A138" s="500" t="s">
+      <c r="A138" s="496" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="491"/>
-      <c r="C138" s="491"/>
-      <c r="D138" s="491"/>
-      <c r="E138" s="491"/>
-      <c r="F138" s="492"/>
+      <c r="B138" s="487"/>
+      <c r="C138" s="487"/>
+      <c r="D138" s="487"/>
+      <c r="E138" s="487"/>
+      <c r="F138" s="488"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="5" t="s">
@@ -43088,14 +42933,14 @@
       <c r="F141" s="10"/>
     </row>
     <row r="142" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A142" s="500" t="s">
+      <c r="A142" s="496" t="s">
         <v>165</v>
       </c>
-      <c r="B142" s="491"/>
-      <c r="C142" s="491"/>
-      <c r="D142" s="491"/>
-      <c r="E142" s="491"/>
-      <c r="F142" s="492"/>
+      <c r="B142" s="487"/>
+      <c r="C142" s="487"/>
+      <c r="D142" s="487"/>
+      <c r="E142" s="487"/>
+      <c r="F142" s="488"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="5" t="s">
@@ -43130,14 +42975,14 @@
       <c r="F144" s="10"/>
     </row>
     <row r="145" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A145" s="500" t="s">
+      <c r="A145" s="496" t="s">
         <v>862</v>
       </c>
-      <c r="B145" s="491"/>
-      <c r="C145" s="491"/>
-      <c r="D145" s="491"/>
-      <c r="E145" s="491"/>
-      <c r="F145" s="492"/>
+      <c r="B145" s="487"/>
+      <c r="C145" s="487"/>
+      <c r="D145" s="487"/>
+      <c r="E145" s="487"/>
+      <c r="F145" s="488"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="5" t="s">
@@ -43188,14 +43033,14 @@
       <c r="F148" s="57"/>
     </row>
     <row r="149" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A149" s="505" t="s">
+      <c r="A149" s="501" t="s">
         <v>216</v>
       </c>
-      <c r="B149" s="498"/>
-      <c r="C149" s="491"/>
-      <c r="D149" s="491"/>
-      <c r="E149" s="491"/>
-      <c r="F149" s="492"/>
+      <c r="B149" s="494"/>
+      <c r="C149" s="487"/>
+      <c r="D149" s="487"/>
+      <c r="E149" s="487"/>
+      <c r="F149" s="488"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="25" t="s">
@@ -43232,14 +43077,14 @@
       <c r="F151" s="10"/>
     </row>
     <row r="152" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A152" s="500" t="s">
+      <c r="A152" s="496" t="s">
         <v>221</v>
       </c>
-      <c r="B152" s="491"/>
-      <c r="C152" s="491"/>
-      <c r="D152" s="491"/>
-      <c r="E152" s="491"/>
-      <c r="F152" s="492"/>
+      <c r="B152" s="487"/>
+      <c r="C152" s="487"/>
+      <c r="D152" s="487"/>
+      <c r="E152" s="487"/>
+      <c r="F152" s="488"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="25" t="s">
@@ -43278,14 +43123,14 @@
       <c r="F154" s="10"/>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A155" s="500" t="s">
+      <c r="A155" s="496" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="491"/>
-      <c r="C155" s="491"/>
-      <c r="D155" s="491"/>
-      <c r="E155" s="491"/>
-      <c r="F155" s="492"/>
+      <c r="B155" s="487"/>
+      <c r="C155" s="487"/>
+      <c r="D155" s="487"/>
+      <c r="E155" s="487"/>
+      <c r="F155" s="488"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="25" t="s">
@@ -43324,14 +43169,14 @@
       <c r="F157" s="10"/>
     </row>
     <row r="158" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A158" s="500" t="s">
+      <c r="A158" s="496" t="s">
         <v>354</v>
       </c>
-      <c r="B158" s="491"/>
-      <c r="C158" s="491"/>
-      <c r="D158" s="491"/>
-      <c r="E158" s="491"/>
-      <c r="F158" s="492"/>
+      <c r="B158" s="487"/>
+      <c r="C158" s="487"/>
+      <c r="D158" s="487"/>
+      <c r="E158" s="487"/>
+      <c r="F158" s="488"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="25" t="s">
@@ -43368,14 +43213,14 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A161" s="500" t="s">
+      <c r="A161" s="496" t="s">
         <v>552</v>
       </c>
-      <c r="B161" s="491"/>
-      <c r="C161" s="491"/>
-      <c r="D161" s="491"/>
-      <c r="E161" s="491"/>
-      <c r="F161" s="492"/>
+      <c r="B161" s="487"/>
+      <c r="C161" s="487"/>
+      <c r="D161" s="487"/>
+      <c r="E161" s="487"/>
+      <c r="F161" s="488"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="25" t="s">
@@ -43416,14 +43261,14 @@
       <c r="F163" s="10"/>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A164" s="500" t="s">
+      <c r="A164" s="496" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="491"/>
-      <c r="C164" s="491"/>
-      <c r="D164" s="491"/>
-      <c r="E164" s="491"/>
-      <c r="F164" s="492"/>
+      <c r="B164" s="487"/>
+      <c r="C164" s="487"/>
+      <c r="D164" s="487"/>
+      <c r="E164" s="487"/>
+      <c r="F164" s="488"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="25" t="s">
@@ -43458,14 +43303,14 @@
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A167" s="500" t="s">
+      <c r="A167" s="496" t="s">
         <v>200</v>
       </c>
-      <c r="B167" s="491"/>
-      <c r="C167" s="491"/>
-      <c r="D167" s="491"/>
-      <c r="E167" s="491"/>
-      <c r="F167" s="492"/>
+      <c r="B167" s="487"/>
+      <c r="C167" s="487"/>
+      <c r="D167" s="487"/>
+      <c r="E167" s="487"/>
+      <c r="F167" s="488"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="25" t="s">
@@ -43500,14 +43345,14 @@
       <c r="F169" s="10"/>
     </row>
     <row r="170" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A170" s="500" t="s">
+      <c r="A170" s="496" t="s">
         <v>832</v>
       </c>
-      <c r="B170" s="491"/>
-      <c r="C170" s="491"/>
-      <c r="D170" s="491"/>
-      <c r="E170" s="491"/>
-      <c r="F170" s="492"/>
+      <c r="B170" s="487"/>
+      <c r="C170" s="487"/>
+      <c r="D170" s="487"/>
+      <c r="E170" s="487"/>
+      <c r="F170" s="488"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="25" t="s">
@@ -43560,14 +43405,14 @@
       <c r="F173" s="10"/>
     </row>
     <row r="174" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A174" s="500" t="s">
+      <c r="A174" s="496" t="s">
         <v>372</v>
       </c>
-      <c r="B174" s="491"/>
-      <c r="C174" s="491"/>
-      <c r="D174" s="491"/>
-      <c r="E174" s="491"/>
-      <c r="F174" s="492"/>
+      <c r="B174" s="487"/>
+      <c r="C174" s="487"/>
+      <c r="D174" s="487"/>
+      <c r="E174" s="487"/>
+      <c r="F174" s="488"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="25" t="s">
@@ -43606,14 +43451,14 @@
       <c r="F176" s="10"/>
     </row>
     <row r="177" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A177" s="500" t="s">
+      <c r="A177" s="496" t="s">
         <v>377</v>
       </c>
-      <c r="B177" s="491"/>
-      <c r="C177" s="491"/>
-      <c r="D177" s="491"/>
-      <c r="E177" s="491"/>
-      <c r="F177" s="492"/>
+      <c r="B177" s="487"/>
+      <c r="C177" s="487"/>
+      <c r="D177" s="487"/>
+      <c r="E177" s="487"/>
+      <c r="F177" s="488"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="25" t="s">
@@ -43654,14 +43499,14 @@
       <c r="F179" s="10"/>
     </row>
     <row r="180" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A180" s="500" t="s">
+      <c r="A180" s="496" t="s">
         <v>383</v>
       </c>
-      <c r="B180" s="491"/>
-      <c r="C180" s="491"/>
-      <c r="D180" s="491"/>
-      <c r="E180" s="491"/>
-      <c r="F180" s="492"/>
+      <c r="B180" s="487"/>
+      <c r="C180" s="487"/>
+      <c r="D180" s="487"/>
+      <c r="E180" s="487"/>
+      <c r="F180" s="488"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="25" t="s">
@@ -43740,14 +43585,14 @@
       <c r="F185" s="10"/>
     </row>
     <row r="186" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A186" s="500" t="s">
+      <c r="A186" s="496" t="s">
         <v>400</v>
       </c>
-      <c r="B186" s="491"/>
-      <c r="C186" s="491"/>
-      <c r="D186" s="491"/>
-      <c r="E186" s="491"/>
-      <c r="F186" s="492"/>
+      <c r="B186" s="487"/>
+      <c r="C186" s="487"/>
+      <c r="D186" s="487"/>
+      <c r="E186" s="487"/>
+      <c r="F186" s="488"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="25" t="s">
@@ -43870,14 +43715,14 @@
       <c r="F194" s="47"/>
     </row>
     <row r="195" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A195" s="500" t="s">
+      <c r="A195" s="496" t="s">
         <v>537</v>
       </c>
-      <c r="B195" s="491"/>
-      <c r="C195" s="491"/>
-      <c r="D195" s="491"/>
-      <c r="E195" s="491"/>
-      <c r="F195" s="492"/>
+      <c r="B195" s="487"/>
+      <c r="C195" s="487"/>
+      <c r="D195" s="487"/>
+      <c r="E195" s="487"/>
+      <c r="F195" s="488"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="25" t="s">
@@ -43900,7 +43745,7 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="489"/>
+      <c r="A197" s="485"/>
       <c r="B197" s="9" t="s">
         <v>539</v>
       </c>
@@ -43916,7 +43761,7 @@
       <c r="F197" s="10"/>
     </row>
     <row r="198" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A198" s="489"/>
+      <c r="A198" s="485"/>
       <c r="B198" s="9" t="s">
         <v>542</v>
       </c>
@@ -43932,14 +43777,14 @@
       <c r="F198" s="47"/>
     </row>
     <row r="199" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A199" s="500" t="s">
+      <c r="A199" s="496" t="s">
         <v>580</v>
       </c>
-      <c r="B199" s="491"/>
-      <c r="C199" s="491"/>
-      <c r="D199" s="491"/>
-      <c r="E199" s="491"/>
-      <c r="F199" s="492"/>
+      <c r="B199" s="487"/>
+      <c r="C199" s="487"/>
+      <c r="D199" s="487"/>
+      <c r="E199" s="487"/>
+      <c r="F199" s="488"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="25" t="s">
@@ -43976,14 +43821,14 @@
       <c r="F201" s="10"/>
     </row>
     <row r="202" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A202" s="500" t="s">
+      <c r="A202" s="496" t="s">
         <v>586</v>
       </c>
-      <c r="B202" s="491"/>
-      <c r="C202" s="491"/>
-      <c r="D202" s="491"/>
-      <c r="E202" s="491"/>
-      <c r="F202" s="492"/>
+      <c r="B202" s="487"/>
+      <c r="C202" s="487"/>
+      <c r="D202" s="487"/>
+      <c r="E202" s="487"/>
+      <c r="F202" s="488"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="25" t="s">
@@ -44052,14 +43897,14 @@
       <c r="F206" s="10"/>
     </row>
     <row r="207" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A207" s="497" t="s">
+      <c r="A207" s="493" t="s">
         <v>726</v>
       </c>
-      <c r="B207" s="498"/>
-      <c r="C207" s="498"/>
-      <c r="D207" s="498"/>
-      <c r="E207" s="498"/>
-      <c r="F207" s="499"/>
+      <c r="B207" s="494"/>
+      <c r="C207" s="494"/>
+      <c r="D207" s="494"/>
+      <c r="E207" s="494"/>
+      <c r="F207" s="495"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="25" t="s">
@@ -44206,14 +44051,14 @@
       <c r="F216" s="10"/>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A217" s="490" t="s">
+      <c r="A217" s="486" t="s">
         <v>1004</v>
       </c>
-      <c r="B217" s="495"/>
-      <c r="C217" s="495"/>
-      <c r="D217" s="495"/>
-      <c r="E217" s="495"/>
-      <c r="F217" s="496"/>
+      <c r="B217" s="491"/>
+      <c r="C217" s="491"/>
+      <c r="D217" s="491"/>
+      <c r="E217" s="491"/>
+      <c r="F217" s="492"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="25" t="s">
@@ -44276,14 +44121,14 @@
       <c r="F221" s="10"/>
     </row>
     <row r="222" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A222" s="490" t="s">
+      <c r="A222" s="486" t="s">
         <v>762</v>
       </c>
-      <c r="B222" s="495"/>
-      <c r="C222" s="495"/>
-      <c r="D222" s="495"/>
-      <c r="E222" s="495"/>
-      <c r="F222" s="496"/>
+      <c r="B222" s="491"/>
+      <c r="C222" s="491"/>
+      <c r="D222" s="491"/>
+      <c r="E222" s="491"/>
+      <c r="F222" s="492"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="25" t="s">
@@ -44334,14 +44179,14 @@
       <c r="F225" s="10"/>
     </row>
     <row r="226" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A226" s="490" t="s">
+      <c r="A226" s="486" t="s">
         <v>766</v>
       </c>
-      <c r="B226" s="491"/>
-      <c r="C226" s="491"/>
-      <c r="D226" s="491"/>
-      <c r="E226" s="491"/>
-      <c r="F226" s="492"/>
+      <c r="B226" s="487"/>
+      <c r="C226" s="487"/>
+      <c r="D226" s="487"/>
+      <c r="E226" s="487"/>
+      <c r="F226" s="488"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="25" t="s">
@@ -44378,14 +44223,14 @@
       <c r="F228" s="10"/>
     </row>
     <row r="229" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A229" s="490" t="s">
+      <c r="A229" s="486" t="s">
         <v>767</v>
       </c>
-      <c r="B229" s="491"/>
-      <c r="C229" s="491"/>
-      <c r="D229" s="491"/>
-      <c r="E229" s="491"/>
-      <c r="F229" s="492"/>
+      <c r="B229" s="487"/>
+      <c r="C229" s="487"/>
+      <c r="D229" s="487"/>
+      <c r="E229" s="487"/>
+      <c r="F229" s="488"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="25" t="s">
@@ -44418,14 +44263,14 @@
       <c r="F231" s="10"/>
     </row>
     <row r="232" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A232" s="490" t="s">
+      <c r="A232" s="486" t="s">
         <v>776</v>
       </c>
-      <c r="B232" s="491"/>
-      <c r="C232" s="491"/>
-      <c r="D232" s="491"/>
-      <c r="E232" s="491"/>
-      <c r="F232" s="492"/>
+      <c r="B232" s="487"/>
+      <c r="C232" s="487"/>
+      <c r="D232" s="487"/>
+      <c r="E232" s="487"/>
+      <c r="F232" s="488"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="25" t="s">
@@ -44464,14 +44309,14 @@
       <c r="F234" s="10"/>
     </row>
     <row r="235" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A235" s="490" t="s">
+      <c r="A235" s="486" t="s">
         <v>778</v>
       </c>
-      <c r="B235" s="491"/>
-      <c r="C235" s="491"/>
-      <c r="D235" s="491"/>
-      <c r="E235" s="491"/>
-      <c r="F235" s="492"/>
+      <c r="B235" s="487"/>
+      <c r="C235" s="487"/>
+      <c r="D235" s="487"/>
+      <c r="E235" s="487"/>
+      <c r="F235" s="488"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="25" t="s">
@@ -44506,14 +44351,14 @@
       <c r="F237" s="10"/>
     </row>
     <row r="238" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A238" s="490" t="s">
+      <c r="A238" s="486" t="s">
         <v>818</v>
       </c>
-      <c r="B238" s="491"/>
-      <c r="C238" s="491"/>
-      <c r="D238" s="491"/>
-      <c r="E238" s="491"/>
-      <c r="F238" s="492"/>
+      <c r="B238" s="487"/>
+      <c r="C238" s="487"/>
+      <c r="D238" s="487"/>
+      <c r="E238" s="487"/>
+      <c r="F238" s="488"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="25" t="s">
@@ -44568,14 +44413,14 @@
       <c r="F241" s="10"/>
     </row>
     <row r="242" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A242" s="490" t="s">
+      <c r="A242" s="486" t="s">
         <v>840</v>
       </c>
-      <c r="B242" s="491"/>
-      <c r="C242" s="491"/>
-      <c r="D242" s="491"/>
-      <c r="E242" s="491"/>
-      <c r="F242" s="492"/>
+      <c r="B242" s="487"/>
+      <c r="C242" s="487"/>
+      <c r="D242" s="487"/>
+      <c r="E242" s="487"/>
+      <c r="F242" s="488"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="25" t="s">
@@ -44612,14 +44457,14 @@
       <c r="F244" s="10"/>
     </row>
     <row r="245" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A245" s="490" t="s">
+      <c r="A245" s="486" t="s">
         <v>1061</v>
       </c>
-      <c r="B245" s="491"/>
-      <c r="C245" s="491"/>
-      <c r="D245" s="491"/>
-      <c r="E245" s="491"/>
-      <c r="F245" s="492"/>
+      <c r="B245" s="487"/>
+      <c r="C245" s="487"/>
+      <c r="D245" s="487"/>
+      <c r="E245" s="487"/>
+      <c r="F245" s="488"/>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="25" t="s">
@@ -44656,14 +44501,14 @@
       <c r="F247" s="10"/>
     </row>
     <row r="248" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A248" s="490" t="s">
+      <c r="A248" s="486" t="s">
         <v>1075</v>
       </c>
-      <c r="B248" s="491"/>
-      <c r="C248" s="491"/>
-      <c r="D248" s="491"/>
-      <c r="E248" s="491"/>
-      <c r="F248" s="492"/>
+      <c r="B248" s="487"/>
+      <c r="C248" s="487"/>
+      <c r="D248" s="487"/>
+      <c r="E248" s="487"/>
+      <c r="F248" s="488"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="25" t="s">
@@ -44686,7 +44531,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="493" t="s">
+      <c r="A250" s="489" t="s">
         <v>1084</v>
       </c>
       <c r="B250" s="109" t="s">
@@ -44702,7 +44547,7 @@
       <c r="F250" s="10"/>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="494"/>
+      <c r="A251" s="490"/>
       <c r="B251" s="109" t="s">
         <v>1078</v>
       </c>
@@ -44716,7 +44561,7 @@
       <c r="F251" s="10"/>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="494"/>
+      <c r="A252" s="490"/>
       <c r="B252" s="110" t="s">
         <v>1079</v>
       </c>
@@ -44732,14 +44577,14 @@
       <c r="F252" s="16"/>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="486" t="s">
+      <c r="A253" s="482" t="s">
         <v>1120</v>
       </c>
-      <c r="B253" s="487"/>
-      <c r="C253" s="487"/>
-      <c r="D253" s="487"/>
-      <c r="E253" s="487"/>
-      <c r="F253" s="487"/>
+      <c r="B253" s="483"/>
+      <c r="C253" s="483"/>
+      <c r="D253" s="483"/>
+      <c r="E253" s="483"/>
+      <c r="F253" s="483"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="105" t="s">
@@ -44762,7 +44607,7 @@
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="488"/>
+      <c r="A255" s="484"/>
       <c r="B255" s="109" t="s">
         <v>1089</v>
       </c>
@@ -44776,7 +44621,7 @@
       <c r="F255" s="10"/>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="489"/>
+      <c r="A256" s="485"/>
       <c r="B256" s="109" t="s">
         <v>1093</v>
       </c>
@@ -44792,14 +44637,14 @@
       <c r="F256" s="10"/>
     </row>
     <row r="257" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A257" s="498" t="s">
+      <c r="A257" s="494" t="s">
         <v>1106</v>
       </c>
-      <c r="B257" s="498"/>
-      <c r="C257" s="498"/>
-      <c r="D257" s="498"/>
-      <c r="E257" s="498"/>
-      <c r="F257" s="498"/>
+      <c r="B257" s="494"/>
+      <c r="C257" s="494"/>
+      <c r="D257" s="494"/>
+      <c r="E257" s="494"/>
+      <c r="F257" s="494"/>
     </row>
     <row r="258" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A258" s="5" t="s">
@@ -44822,7 +44667,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" s="8" customFormat="1">
-      <c r="A259" s="501"/>
+      <c r="A259" s="497"/>
       <c r="B259" s="9" t="s">
         <v>1228</v>
       </c>
@@ -44838,7 +44683,7 @@
       <c r="F259" s="10"/>
     </row>
     <row r="260" spans="1:6" s="23" customFormat="1">
-      <c r="A260" s="501"/>
+      <c r="A260" s="497"/>
       <c r="B260" s="9" t="s">
         <v>1227</v>
       </c>
@@ -44854,14 +44699,14 @@
       <c r="F260" s="10"/>
     </row>
     <row r="261" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A261" s="498" t="s">
+      <c r="A261" s="494" t="s">
         <v>1230</v>
       </c>
-      <c r="B261" s="498"/>
-      <c r="C261" s="498"/>
-      <c r="D261" s="498"/>
-      <c r="E261" s="498"/>
-      <c r="F261" s="498"/>
+      <c r="B261" s="494"/>
+      <c r="C261" s="494"/>
+      <c r="D261" s="494"/>
+      <c r="E261" s="494"/>
+      <c r="F261" s="494"/>
     </row>
     <row r="262" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A262" s="5" t="s">
@@ -47694,33 +47539,33 @@
       <c r="D12" s="185" t="s">
         <v>2253</v>
       </c>
-      <c r="E12" s="564"/>
-      <c r="F12" s="564"/>
-      <c r="G12" s="564"/>
+      <c r="E12" s="560"/>
+      <c r="F12" s="560"/>
+      <c r="G12" s="560"/>
       <c r="H12" s="186" t="s">
         <v>2254</v>
       </c>
-      <c r="I12" s="564" t="s">
+      <c r="I12" s="560" t="s">
         <v>2255</v>
       </c>
-      <c r="J12" s="564"/>
-      <c r="K12" s="564"/>
+      <c r="J12" s="560"/>
+      <c r="K12" s="560"/>
       <c r="L12" s="186" t="s">
         <v>2256</v>
       </c>
-      <c r="M12" s="564" t="s">
+      <c r="M12" s="560" t="s">
         <v>2257</v>
       </c>
-      <c r="N12" s="564"/>
-      <c r="O12" s="564"/>
+      <c r="N12" s="560"/>
+      <c r="O12" s="560"/>
       <c r="P12" s="186" t="s">
         <v>2258</v>
       </c>
-      <c r="Q12" s="564" t="s">
+      <c r="Q12" s="560" t="s">
         <v>2259</v>
       </c>
-      <c r="R12" s="564"/>
-      <c r="S12" s="564"/>
+      <c r="R12" s="560"/>
+      <c r="S12" s="560"/>
       <c r="T12" s="168"/>
       <c r="U12" s="168"/>
       <c r="V12" s="168"/>
@@ -47739,29 +47584,29 @@
       <c r="D13" s="187" t="s">
         <v>2260</v>
       </c>
-      <c r="E13" s="559" t="s">
+      <c r="E13" s="555" t="s">
         <v>2306</v>
       </c>
-      <c r="F13" s="559"/>
-      <c r="G13" s="559"/>
+      <c r="F13" s="555"/>
+      <c r="G13" s="555"/>
       <c r="H13" s="188" t="s">
         <v>2261</v>
       </c>
-      <c r="I13" s="559"/>
-      <c r="J13" s="559"/>
-      <c r="K13" s="559"/>
+      <c r="I13" s="555"/>
+      <c r="J13" s="555"/>
+      <c r="K13" s="555"/>
       <c r="L13" s="188" t="s">
         <v>2262</v>
       </c>
-      <c r="M13" s="559"/>
-      <c r="N13" s="559"/>
-      <c r="O13" s="559"/>
+      <c r="M13" s="555"/>
+      <c r="N13" s="555"/>
+      <c r="O13" s="555"/>
       <c r="P13" s="188" t="s">
         <v>2263</v>
       </c>
-      <c r="Q13" s="559"/>
-      <c r="R13" s="559"/>
-      <c r="S13" s="559"/>
+      <c r="Q13" s="555"/>
+      <c r="R13" s="555"/>
+      <c r="S13" s="555"/>
       <c r="T13" s="168"/>
       <c r="U13" s="168"/>
       <c r="V13" s="168"/>
@@ -47780,33 +47625,33 @@
       <c r="D14" s="187" t="s">
         <v>2264</v>
       </c>
-      <c r="E14" s="559"/>
-      <c r="F14" s="559"/>
-      <c r="G14" s="559"/>
+      <c r="E14" s="555"/>
+      <c r="F14" s="555"/>
+      <c r="G14" s="555"/>
       <c r="H14" s="188" t="s">
         <v>2265</v>
       </c>
-      <c r="I14" s="559" t="s">
+      <c r="I14" s="555" t="s">
         <v>2266</v>
       </c>
-      <c r="J14" s="559"/>
-      <c r="K14" s="559"/>
+      <c r="J14" s="555"/>
+      <c r="K14" s="555"/>
       <c r="L14" s="188" t="s">
         <v>2267</v>
       </c>
-      <c r="M14" s="559" t="s">
+      <c r="M14" s="555" t="s">
         <v>2268</v>
       </c>
-      <c r="N14" s="559"/>
-      <c r="O14" s="559"/>
+      <c r="N14" s="555"/>
+      <c r="O14" s="555"/>
       <c r="P14" s="188" t="s">
         <v>2269</v>
       </c>
-      <c r="Q14" s="559" t="s">
+      <c r="Q14" s="555" t="s">
         <v>2303</v>
       </c>
-      <c r="R14" s="559"/>
-      <c r="S14" s="559"/>
+      <c r="R14" s="555"/>
+      <c r="S14" s="555"/>
       <c r="T14" s="168"/>
       <c r="U14" s="168"/>
       <c r="V14" s="168"/>
@@ -47825,31 +47670,31 @@
       <c r="D15" s="187" t="s">
         <v>2270</v>
       </c>
-      <c r="E15" s="559"/>
-      <c r="F15" s="559"/>
-      <c r="G15" s="559"/>
+      <c r="E15" s="555"/>
+      <c r="F15" s="555"/>
+      <c r="G15" s="555"/>
       <c r="H15" s="188" t="s">
         <v>2271</v>
       </c>
-      <c r="I15" s="559"/>
-      <c r="J15" s="559"/>
-      <c r="K15" s="559"/>
+      <c r="I15" s="555"/>
+      <c r="J15" s="555"/>
+      <c r="K15" s="555"/>
       <c r="L15" s="188" t="s">
         <v>2272</v>
       </c>
-      <c r="M15" s="559" t="s">
+      <c r="M15" s="555" t="s">
         <v>2284</v>
       </c>
-      <c r="N15" s="559"/>
-      <c r="O15" s="559"/>
+      <c r="N15" s="555"/>
+      <c r="O15" s="555"/>
       <c r="P15" s="188" t="s">
         <v>2273</v>
       </c>
-      <c r="Q15" s="559" t="s">
+      <c r="Q15" s="555" t="s">
         <v>2274</v>
       </c>
-      <c r="R15" s="559"/>
-      <c r="S15" s="559"/>
+      <c r="R15" s="555"/>
+      <c r="S15" s="555"/>
       <c r="T15" s="168"/>
       <c r="U15" s="168"/>
       <c r="V15" s="168"/>
@@ -47868,35 +47713,35 @@
       <c r="D16" s="187" t="s">
         <v>2275</v>
       </c>
-      <c r="E16" s="559" t="s">
+      <c r="E16" s="555" t="s">
         <v>2307</v>
       </c>
-      <c r="F16" s="559"/>
-      <c r="G16" s="559"/>
+      <c r="F16" s="555"/>
+      <c r="G16" s="555"/>
       <c r="H16" s="188" t="s">
         <v>2276</v>
       </c>
-      <c r="I16" s="559" t="s">
+      <c r="I16" s="555" t="s">
         <v>2308</v>
       </c>
-      <c r="J16" s="559"/>
-      <c r="K16" s="559"/>
+      <c r="J16" s="555"/>
+      <c r="K16" s="555"/>
       <c r="L16" s="188" t="s">
         <v>2277</v>
       </c>
-      <c r="M16" s="559" t="s">
+      <c r="M16" s="555" t="s">
         <v>2278</v>
       </c>
-      <c r="N16" s="559"/>
-      <c r="O16" s="559"/>
+      <c r="N16" s="555"/>
+      <c r="O16" s="555"/>
       <c r="P16" s="188" t="s">
         <v>2279</v>
       </c>
-      <c r="Q16" s="559" t="s">
+      <c r="Q16" s="555" t="s">
         <v>2280</v>
       </c>
-      <c r="R16" s="559"/>
-      <c r="S16" s="559"/>
+      <c r="R16" s="555"/>
+      <c r="S16" s="555"/>
       <c r="T16" s="168"/>
       <c r="U16" s="168"/>
       <c r="V16" s="168"/>
@@ -47915,31 +47760,31 @@
       <c r="D17" s="187" t="s">
         <v>2281</v>
       </c>
-      <c r="E17" s="559"/>
-      <c r="F17" s="559"/>
-      <c r="G17" s="559"/>
+      <c r="E17" s="555"/>
+      <c r="F17" s="555"/>
+      <c r="G17" s="555"/>
       <c r="H17" s="188" t="s">
         <v>2282</v>
       </c>
-      <c r="I17" s="559"/>
-      <c r="J17" s="559"/>
-      <c r="K17" s="559"/>
+      <c r="I17" s="555"/>
+      <c r="J17" s="555"/>
+      <c r="K17" s="555"/>
       <c r="L17" s="188" t="s">
         <v>2283</v>
       </c>
-      <c r="M17" s="560" t="s">
+      <c r="M17" s="556" t="s">
         <v>2305</v>
       </c>
-      <c r="N17" s="560"/>
-      <c r="O17" s="560"/>
+      <c r="N17" s="556"/>
+      <c r="O17" s="556"/>
       <c r="P17" s="188" t="s">
         <v>2285</v>
       </c>
-      <c r="Q17" s="559" t="s">
+      <c r="Q17" s="555" t="s">
         <v>2304</v>
       </c>
-      <c r="R17" s="559"/>
-      <c r="S17" s="559"/>
+      <c r="R17" s="555"/>
+      <c r="S17" s="555"/>
       <c r="T17" s="168"/>
       <c r="U17" s="168"/>
       <c r="V17" s="168"/>
@@ -48225,25 +48070,25 @@
       <c r="D25" s="188" t="s">
         <v>2253</v>
       </c>
-      <c r="E25" s="561" t="s">
+      <c r="E25" s="557" t="s">
         <v>2293</v>
       </c>
-      <c r="F25" s="562"/>
-      <c r="G25" s="562"/>
-      <c r="H25" s="562"/>
-      <c r="I25" s="562"/>
-      <c r="J25" s="563"/>
+      <c r="F25" s="558"/>
+      <c r="G25" s="558"/>
+      <c r="H25" s="558"/>
+      <c r="I25" s="558"/>
+      <c r="J25" s="559"/>
       <c r="K25" s="188" t="s">
         <v>2265</v>
       </c>
-      <c r="L25" s="559" t="s">
+      <c r="L25" s="555" t="s">
         <v>2294</v>
       </c>
-      <c r="M25" s="559"/>
-      <c r="N25" s="559"/>
-      <c r="O25" s="559"/>
-      <c r="P25" s="559"/>
-      <c r="Q25" s="559"/>
+      <c r="M25" s="555"/>
+      <c r="N25" s="555"/>
+      <c r="O25" s="555"/>
+      <c r="P25" s="555"/>
+      <c r="Q25" s="555"/>
       <c r="R25" s="168"/>
       <c r="S25" s="168"/>
       <c r="T25" s="168"/>
@@ -48264,25 +48109,25 @@
       <c r="D26" s="188" t="s">
         <v>2260</v>
       </c>
-      <c r="E26" s="559" t="s">
+      <c r="E26" s="555" t="s">
         <v>2295</v>
       </c>
-      <c r="F26" s="559"/>
-      <c r="G26" s="559"/>
-      <c r="H26" s="559"/>
-      <c r="I26" s="559"/>
-      <c r="J26" s="559"/>
+      <c r="F26" s="555"/>
+      <c r="G26" s="555"/>
+      <c r="H26" s="555"/>
+      <c r="I26" s="555"/>
+      <c r="J26" s="555"/>
       <c r="K26" s="188" t="s">
         <v>2271</v>
       </c>
-      <c r="L26" s="559" t="s">
+      <c r="L26" s="555" t="s">
         <v>2294</v>
       </c>
-      <c r="M26" s="559"/>
-      <c r="N26" s="559"/>
-      <c r="O26" s="559"/>
-      <c r="P26" s="559"/>
-      <c r="Q26" s="559"/>
+      <c r="M26" s="555"/>
+      <c r="N26" s="555"/>
+      <c r="O26" s="555"/>
+      <c r="P26" s="555"/>
+      <c r="Q26" s="555"/>
       <c r="R26" s="168"/>
       <c r="S26" s="168"/>
       <c r="T26" s="168"/>
@@ -48303,25 +48148,25 @@
       <c r="D27" s="188" t="s">
         <v>2264</v>
       </c>
-      <c r="E27" s="559" t="s">
+      <c r="E27" s="555" t="s">
         <v>2296</v>
       </c>
-      <c r="F27" s="559"/>
-      <c r="G27" s="559"/>
-      <c r="H27" s="559"/>
-      <c r="I27" s="559"/>
-      <c r="J27" s="559"/>
+      <c r="F27" s="555"/>
+      <c r="G27" s="555"/>
+      <c r="H27" s="555"/>
+      <c r="I27" s="555"/>
+      <c r="J27" s="555"/>
       <c r="K27" s="188" t="s">
         <v>2276</v>
       </c>
-      <c r="L27" s="559" t="s">
+      <c r="L27" s="555" t="s">
         <v>2294</v>
       </c>
-      <c r="M27" s="559"/>
-      <c r="N27" s="559"/>
-      <c r="O27" s="559"/>
-      <c r="P27" s="559"/>
-      <c r="Q27" s="559"/>
+      <c r="M27" s="555"/>
+      <c r="N27" s="555"/>
+      <c r="O27" s="555"/>
+      <c r="P27" s="555"/>
+      <c r="Q27" s="555"/>
       <c r="R27" s="168"/>
       <c r="S27" s="168"/>
       <c r="T27" s="168"/>
@@ -48342,25 +48187,25 @@
       <c r="D28" s="188" t="s">
         <v>2270</v>
       </c>
-      <c r="E28" s="559" t="s">
+      <c r="E28" s="555" t="s">
         <v>2297</v>
       </c>
-      <c r="F28" s="559"/>
-      <c r="G28" s="559"/>
-      <c r="H28" s="559"/>
-      <c r="I28" s="559"/>
-      <c r="J28" s="559"/>
+      <c r="F28" s="555"/>
+      <c r="G28" s="555"/>
+      <c r="H28" s="555"/>
+      <c r="I28" s="555"/>
+      <c r="J28" s="555"/>
       <c r="K28" s="188" t="s">
         <v>2282</v>
       </c>
-      <c r="L28" s="559" t="s">
+      <c r="L28" s="555" t="s">
         <v>2294</v>
       </c>
-      <c r="M28" s="559"/>
-      <c r="N28" s="559"/>
-      <c r="O28" s="559"/>
-      <c r="P28" s="559"/>
-      <c r="Q28" s="559"/>
+      <c r="M28" s="555"/>
+      <c r="N28" s="555"/>
+      <c r="O28" s="555"/>
+      <c r="P28" s="555"/>
+      <c r="Q28" s="555"/>
       <c r="R28" s="168"/>
       <c r="S28" s="168"/>
       <c r="T28" s="168"/>
@@ -48381,25 +48226,25 @@
       <c r="D29" s="188" t="s">
         <v>2275</v>
       </c>
-      <c r="E29" s="559" t="s">
+      <c r="E29" s="555" t="s">
         <v>2298</v>
       </c>
-      <c r="F29" s="559"/>
-      <c r="G29" s="559"/>
-      <c r="H29" s="559"/>
-      <c r="I29" s="559"/>
-      <c r="J29" s="559"/>
+      <c r="F29" s="555"/>
+      <c r="G29" s="555"/>
+      <c r="H29" s="555"/>
+      <c r="I29" s="555"/>
+      <c r="J29" s="555"/>
       <c r="K29" s="188" t="s">
         <v>2256</v>
       </c>
-      <c r="L29" s="559" t="s">
+      <c r="L29" s="555" t="s">
         <v>2294</v>
       </c>
-      <c r="M29" s="559"/>
-      <c r="N29" s="559"/>
-      <c r="O29" s="559"/>
-      <c r="P29" s="559"/>
-      <c r="Q29" s="559"/>
+      <c r="M29" s="555"/>
+      <c r="N29" s="555"/>
+      <c r="O29" s="555"/>
+      <c r="P29" s="555"/>
+      <c r="Q29" s="555"/>
       <c r="R29" s="168"/>
       <c r="S29" s="168"/>
       <c r="T29" s="168"/>
@@ -48420,25 +48265,25 @@
       <c r="D30" s="188" t="s">
         <v>2281</v>
       </c>
-      <c r="E30" s="559" t="s">
+      <c r="E30" s="555" t="s">
         <v>2299</v>
       </c>
-      <c r="F30" s="559"/>
-      <c r="G30" s="559"/>
-      <c r="H30" s="559"/>
-      <c r="I30" s="559"/>
-      <c r="J30" s="559"/>
+      <c r="F30" s="555"/>
+      <c r="G30" s="555"/>
+      <c r="H30" s="555"/>
+      <c r="I30" s="555"/>
+      <c r="J30" s="555"/>
       <c r="K30" s="188" t="s">
         <v>2262</v>
       </c>
-      <c r="L30" s="559" t="s">
+      <c r="L30" s="555" t="s">
         <v>2294</v>
       </c>
-      <c r="M30" s="559"/>
-      <c r="N30" s="559"/>
-      <c r="O30" s="559"/>
-      <c r="P30" s="559"/>
-      <c r="Q30" s="559"/>
+      <c r="M30" s="555"/>
+      <c r="N30" s="555"/>
+      <c r="O30" s="555"/>
+      <c r="P30" s="555"/>
+      <c r="Q30" s="555"/>
       <c r="R30" s="168"/>
       <c r="S30" s="168"/>
       <c r="T30" s="168"/>
@@ -48459,25 +48304,25 @@
       <c r="D31" s="188" t="s">
         <v>2254</v>
       </c>
-      <c r="E31" s="559" t="s">
+      <c r="E31" s="555" t="s">
         <v>2294</v>
       </c>
-      <c r="F31" s="559"/>
-      <c r="G31" s="559"/>
-      <c r="H31" s="559"/>
-      <c r="I31" s="559"/>
-      <c r="J31" s="559"/>
+      <c r="F31" s="555"/>
+      <c r="G31" s="555"/>
+      <c r="H31" s="555"/>
+      <c r="I31" s="555"/>
+      <c r="J31" s="555"/>
       <c r="K31" s="188" t="s">
         <v>2267</v>
       </c>
-      <c r="L31" s="559" t="s">
+      <c r="L31" s="555" t="s">
         <v>2300</v>
       </c>
-      <c r="M31" s="559"/>
-      <c r="N31" s="559"/>
-      <c r="O31" s="559"/>
-      <c r="P31" s="559"/>
-      <c r="Q31" s="559"/>
+      <c r="M31" s="555"/>
+      <c r="N31" s="555"/>
+      <c r="O31" s="555"/>
+      <c r="P31" s="555"/>
+      <c r="Q31" s="555"/>
       <c r="R31" s="168"/>
       <c r="S31" s="168"/>
       <c r="T31" s="168"/>
@@ -48498,25 +48343,25 @@
       <c r="D32" s="188" t="s">
         <v>2261</v>
       </c>
-      <c r="E32" s="559" t="s">
+      <c r="E32" s="555" t="s">
         <v>2294</v>
       </c>
-      <c r="F32" s="559"/>
-      <c r="G32" s="559"/>
-      <c r="H32" s="559"/>
-      <c r="I32" s="559"/>
-      <c r="J32" s="559"/>
+      <c r="F32" s="555"/>
+      <c r="G32" s="555"/>
+      <c r="H32" s="555"/>
+      <c r="I32" s="555"/>
+      <c r="J32" s="555"/>
       <c r="K32" s="188" t="s">
         <v>2272</v>
       </c>
-      <c r="L32" s="559" t="s">
+      <c r="L32" s="555" t="s">
         <v>2301</v>
       </c>
-      <c r="M32" s="559"/>
-      <c r="N32" s="559"/>
-      <c r="O32" s="559"/>
-      <c r="P32" s="559"/>
-      <c r="Q32" s="559"/>
+      <c r="M32" s="555"/>
+      <c r="N32" s="555"/>
+      <c r="O32" s="555"/>
+      <c r="P32" s="555"/>
+      <c r="Q32" s="555"/>
       <c r="R32" s="168"/>
       <c r="S32" s="168"/>
       <c r="T32" s="168"/>
@@ -49127,26 +48972,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="502" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="507"/>
-      <c r="G1" s="508"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="504"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="487" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -49173,7 +49018,7 @@
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="517" t="s">
+      <c r="B4" s="513" t="s">
         <v>228</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -49190,7 +49035,7 @@
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="520"/>
+      <c r="B5" s="516"/>
       <c r="C5" s="9" t="s">
         <v>231</v>
       </c>
@@ -49200,15 +49045,15 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A6" s="491" t="s">
+      <c r="A6" s="487" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="491"/>
-      <c r="C6" s="491"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="491"/>
-      <c r="F6" s="491"/>
-      <c r="G6" s="491"/>
+      <c r="B6" s="487"/>
+      <c r="C6" s="487"/>
+      <c r="D6" s="487"/>
+      <c r="E6" s="487"/>
+      <c r="F6" s="487"/>
+      <c r="G6" s="487"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
@@ -49234,8 +49079,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="521"/>
-      <c r="B8" s="523" t="s">
+      <c r="A8" s="517"/>
+      <c r="B8" s="519" t="s">
         <v>364</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -49253,8 +49098,8 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="522"/>
-      <c r="B9" s="494"/>
+      <c r="A9" s="518"/>
+      <c r="B9" s="490"/>
       <c r="C9" s="14" t="s">
         <v>345</v>
       </c>
@@ -49268,8 +49113,8 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="522"/>
-      <c r="B10" s="494"/>
+      <c r="A10" s="518"/>
+      <c r="B10" s="490"/>
       <c r="C10" s="14" t="s">
         <v>347</v>
       </c>
@@ -49281,8 +49126,8 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="522"/>
-      <c r="B11" s="524"/>
+      <c r="A11" s="518"/>
+      <c r="B11" s="520"/>
       <c r="C11" s="14" t="s">
         <v>349</v>
       </c>
@@ -49313,15 +49158,15 @@
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A13" s="491" t="s">
+      <c r="A13" s="487" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="491"/>
-      <c r="C13" s="491"/>
-      <c r="D13" s="491"/>
-      <c r="E13" s="491"/>
-      <c r="F13" s="491"/>
-      <c r="G13" s="491"/>
+      <c r="B13" s="487"/>
+      <c r="C13" s="487"/>
+      <c r="D13" s="487"/>
+      <c r="E13" s="487"/>
+      <c r="F13" s="487"/>
+      <c r="G13" s="487"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
@@ -49347,10 +49192,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="523" t="s">
+      <c r="A15" s="519" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="517" t="s">
+      <c r="B15" s="513" t="s">
         <v>239</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -49364,8 +49209,8 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="494"/>
-      <c r="B16" s="520"/>
+      <c r="A16" s="490"/>
+      <c r="B16" s="516"/>
       <c r="C16" s="9" t="s">
         <v>178</v>
       </c>
@@ -49379,8 +49224,8 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A17" s="527"/>
-      <c r="B17" s="520"/>
+      <c r="A17" s="523"/>
+      <c r="B17" s="516"/>
       <c r="C17" s="9" t="s">
         <v>240</v>
       </c>
@@ -49392,15 +49237,15 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A18" s="491" t="s">
+      <c r="A18" s="487" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="491"/>
-      <c r="C18" s="491"/>
-      <c r="D18" s="491"/>
-      <c r="E18" s="491"/>
-      <c r="F18" s="491"/>
-      <c r="G18" s="491"/>
+      <c r="B18" s="487"/>
+      <c r="C18" s="487"/>
+      <c r="D18" s="487"/>
+      <c r="E18" s="487"/>
+      <c r="F18" s="487"/>
+      <c r="G18" s="487"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
@@ -49426,8 +49271,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="529"/>
-      <c r="B20" s="517" t="s">
+      <c r="A20" s="525"/>
+      <c r="B20" s="513" t="s">
         <v>228</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -49441,8 +49286,8 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="530"/>
-      <c r="B21" s="520"/>
+      <c r="A21" s="526"/>
+      <c r="B21" s="516"/>
       <c r="C21" s="9" t="s">
         <v>245</v>
       </c>
@@ -49454,8 +49299,8 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A22" s="531"/>
-      <c r="B22" s="518"/>
+      <c r="A22" s="527"/>
+      <c r="B22" s="514"/>
       <c r="C22" s="9" t="s">
         <v>247</v>
       </c>
@@ -49467,15 +49312,15 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A23" s="491" t="s">
+      <c r="A23" s="487" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="491"/>
-      <c r="C23" s="491"/>
-      <c r="D23" s="491"/>
-      <c r="E23" s="491"/>
-      <c r="F23" s="491"/>
-      <c r="G23" s="491"/>
+      <c r="B23" s="487"/>
+      <c r="C23" s="487"/>
+      <c r="D23" s="487"/>
+      <c r="E23" s="487"/>
+      <c r="F23" s="487"/>
+      <c r="G23" s="487"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
@@ -49501,8 +49346,8 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="523"/>
-      <c r="B25" s="523" t="s">
+      <c r="A25" s="519"/>
+      <c r="B25" s="519" t="s">
         <v>250</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -49516,8 +49361,8 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" thickBot="1">
-      <c r="A26" s="494"/>
-      <c r="B26" s="527"/>
+      <c r="A26" s="490"/>
+      <c r="B26" s="523"/>
       <c r="C26" s="9" t="s">
         <v>253</v>
       </c>
@@ -49533,15 +49378,15 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A27" s="532" t="s">
+      <c r="A27" s="528" t="s">
         <v>257</v>
       </c>
-      <c r="B27" s="495"/>
-      <c r="C27" s="491"/>
-      <c r="D27" s="491"/>
-      <c r="E27" s="491"/>
-      <c r="F27" s="491"/>
-      <c r="G27" s="491"/>
+      <c r="B27" s="491"/>
+      <c r="C27" s="487"/>
+      <c r="D27" s="487"/>
+      <c r="E27" s="487"/>
+      <c r="F27" s="487"/>
+      <c r="G27" s="487"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="5" t="s">
@@ -49567,8 +49412,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="489"/>
-      <c r="B29" s="517"/>
+      <c r="A29" s="485"/>
+      <c r="B29" s="513"/>
       <c r="C29" s="9" t="s">
         <v>174</v>
       </c>
@@ -49584,8 +49429,8 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="489"/>
-      <c r="B30" s="520"/>
+      <c r="A30" s="485"/>
+      <c r="B30" s="516"/>
       <c r="C30" s="9" t="s">
         <v>175</v>
       </c>
@@ -49599,8 +49444,8 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="489"/>
-      <c r="B31" s="520"/>
+      <c r="A31" s="485"/>
+      <c r="B31" s="516"/>
       <c r="C31" s="9" t="s">
         <v>262</v>
       </c>
@@ -49619,7 +49464,7 @@
       <c r="A32" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="520"/>
+      <c r="B32" s="516"/>
       <c r="C32" s="9" t="s">
         <v>267</v>
       </c>
@@ -49635,8 +49480,8 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="523"/>
-      <c r="B33" s="520"/>
+      <c r="A33" s="519"/>
+      <c r="B33" s="516"/>
       <c r="C33" s="9" t="s">
         <v>271</v>
       </c>
@@ -49648,8 +49493,8 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A34" s="494"/>
-      <c r="B34" s="520"/>
+      <c r="A34" s="490"/>
+      <c r="B34" s="516"/>
       <c r="C34" s="9" t="s">
         <v>273</v>
       </c>
@@ -49661,8 +49506,8 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="494"/>
-      <c r="B35" s="520"/>
+      <c r="A35" s="490"/>
+      <c r="B35" s="516"/>
       <c r="C35" s="9" t="s">
         <v>275</v>
       </c>
@@ -49674,8 +49519,8 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="524"/>
-      <c r="B36" s="533"/>
+      <c r="A36" s="520"/>
+      <c r="B36" s="529"/>
       <c r="C36" s="9" t="s">
         <v>277</v>
       </c>
@@ -49696,15 +49541,15 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A38" s="491" t="s">
+      <c r="A38" s="487" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="491"/>
-      <c r="C38" s="491"/>
-      <c r="D38" s="491"/>
-      <c r="E38" s="491"/>
-      <c r="F38" s="491"/>
-      <c r="G38" s="491"/>
+      <c r="B38" s="487"/>
+      <c r="C38" s="487"/>
+      <c r="D38" s="487"/>
+      <c r="E38" s="487"/>
+      <c r="F38" s="487"/>
+      <c r="G38" s="487"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
@@ -49745,15 +49590,15 @@
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="528" t="s">
+      <c r="A41" s="524" t="s">
         <v>280</v>
       </c>
-      <c r="B41" s="528"/>
-      <c r="C41" s="528"/>
-      <c r="D41" s="528"/>
-      <c r="E41" s="528"/>
-      <c r="F41" s="528"/>
-      <c r="G41" s="528"/>
+      <c r="B41" s="524"/>
+      <c r="C41" s="524"/>
+      <c r="D41" s="524"/>
+      <c r="E41" s="524"/>
+      <c r="F41" s="524"/>
+      <c r="G41" s="524"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
@@ -49780,7 +49625,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1"/>
-      <c r="B43" s="519" t="s">
+      <c r="B43" s="515" t="s">
         <v>281</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -49797,7 +49642,7 @@
     </row>
     <row r="44" spans="1:7" ht="17.25" thickBot="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="519"/>
+      <c r="B44" s="515"/>
       <c r="C44" s="9" t="s">
         <v>282</v>
       </c>
@@ -49809,15 +49654,15 @@
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A45" s="491" t="s">
+      <c r="A45" s="487" t="s">
         <v>284</v>
       </c>
-      <c r="B45" s="491"/>
-      <c r="C45" s="491"/>
-      <c r="D45" s="491"/>
-      <c r="E45" s="491"/>
-      <c r="F45" s="491"/>
-      <c r="G45" s="491"/>
+      <c r="B45" s="487"/>
+      <c r="C45" s="487"/>
+      <c r="D45" s="487"/>
+      <c r="E45" s="487"/>
+      <c r="F45" s="487"/>
+      <c r="G45" s="487"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
@@ -49858,15 +49703,15 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A48" s="491" t="s">
+      <c r="A48" s="487" t="s">
         <v>288</v>
       </c>
-      <c r="B48" s="491"/>
-      <c r="C48" s="491"/>
-      <c r="D48" s="491"/>
-      <c r="E48" s="491"/>
-      <c r="F48" s="491"/>
-      <c r="G48" s="491"/>
+      <c r="B48" s="487"/>
+      <c r="C48" s="487"/>
+      <c r="D48" s="487"/>
+      <c r="E48" s="487"/>
+      <c r="F48" s="487"/>
+      <c r="G48" s="487"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
@@ -49907,15 +49752,15 @@
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A51" s="491" t="s">
+      <c r="A51" s="487" t="s">
         <v>291</v>
       </c>
-      <c r="B51" s="491"/>
-      <c r="C51" s="491"/>
-      <c r="D51" s="491"/>
-      <c r="E51" s="491"/>
-      <c r="F51" s="491"/>
-      <c r="G51" s="491"/>
+      <c r="B51" s="487"/>
+      <c r="C51" s="487"/>
+      <c r="D51" s="487"/>
+      <c r="E51" s="487"/>
+      <c r="F51" s="487"/>
+      <c r="G51" s="487"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
@@ -49956,15 +49801,15 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A54" s="491" t="s">
+      <c r="A54" s="487" t="s">
         <v>295</v>
       </c>
-      <c r="B54" s="491"/>
-      <c r="C54" s="491"/>
-      <c r="D54" s="491"/>
-      <c r="E54" s="491"/>
-      <c r="F54" s="491"/>
-      <c r="G54" s="491"/>
+      <c r="B54" s="487"/>
+      <c r="C54" s="487"/>
+      <c r="D54" s="487"/>
+      <c r="E54" s="487"/>
+      <c r="F54" s="487"/>
+      <c r="G54" s="487"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="5" t="s">
@@ -50005,15 +49850,15 @@
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A57" s="491" t="s">
+      <c r="A57" s="487" t="s">
         <v>360</v>
       </c>
-      <c r="B57" s="491"/>
-      <c r="C57" s="491"/>
-      <c r="D57" s="491"/>
-      <c r="E57" s="491"/>
-      <c r="F57" s="491"/>
-      <c r="G57" s="491"/>
+      <c r="B57" s="487"/>
+      <c r="C57" s="487"/>
+      <c r="D57" s="487"/>
+      <c r="E57" s="487"/>
+      <c r="F57" s="487"/>
+      <c r="G57" s="487"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
@@ -50039,8 +49884,8 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="523"/>
-      <c r="B59" s="525" t="s">
+      <c r="A59" s="519"/>
+      <c r="B59" s="521" t="s">
         <v>361</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -50054,8 +49899,8 @@
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="524"/>
-      <c r="B60" s="526"/>
+      <c r="A60" s="520"/>
+      <c r="B60" s="522"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -50129,26 +49974,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="502" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="507"/>
-      <c r="G1" s="508"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="504"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="487" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -50175,7 +50020,7 @@
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="517" t="s">
+      <c r="B4" s="513" t="s">
         <v>228</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -50192,7 +50037,7 @@
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="520"/>
+      <c r="B5" s="516"/>
       <c r="C5" s="9" t="s">
         <v>231</v>
       </c>
@@ -50202,15 +50047,15 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A6" s="491" t="s">
+      <c r="A6" s="487" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="491"/>
-      <c r="C6" s="491"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="491"/>
-      <c r="F6" s="491"/>
-      <c r="G6" s="491"/>
+      <c r="B6" s="487"/>
+      <c r="C6" s="487"/>
+      <c r="D6" s="487"/>
+      <c r="E6" s="487"/>
+      <c r="F6" s="487"/>
+      <c r="G6" s="487"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
@@ -50255,15 +50100,15 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A9" s="491" t="s">
+      <c r="A9" s="487" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="491"/>
-      <c r="C9" s="491"/>
-      <c r="D9" s="491"/>
-      <c r="E9" s="491"/>
-      <c r="F9" s="491"/>
-      <c r="G9" s="491"/>
+      <c r="B9" s="487"/>
+      <c r="C9" s="487"/>
+      <c r="D9" s="487"/>
+      <c r="E9" s="487"/>
+      <c r="F9" s="487"/>
+      <c r="G9" s="487"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
@@ -50289,10 +50134,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="523" t="s">
+      <c r="A11" s="519" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="517" t="s">
+      <c r="B11" s="513" t="s">
         <v>239</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -50306,8 +50151,8 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="494"/>
-      <c r="B12" s="520"/>
+      <c r="A12" s="490"/>
+      <c r="B12" s="516"/>
       <c r="C12" s="9" t="s">
         <v>178</v>
       </c>
@@ -50321,8 +50166,8 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A13" s="527"/>
-      <c r="B13" s="520"/>
+      <c r="A13" s="523"/>
+      <c r="B13" s="516"/>
       <c r="C13" s="9" t="s">
         <v>240</v>
       </c>
@@ -50334,15 +50179,15 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A14" s="491" t="s">
+      <c r="A14" s="487" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="491"/>
-      <c r="C14" s="491"/>
-      <c r="D14" s="491"/>
-      <c r="E14" s="491"/>
-      <c r="F14" s="491"/>
-      <c r="G14" s="491"/>
+      <c r="B14" s="487"/>
+      <c r="C14" s="487"/>
+      <c r="D14" s="487"/>
+      <c r="E14" s="487"/>
+      <c r="F14" s="487"/>
+      <c r="G14" s="487"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
@@ -50368,8 +50213,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="529"/>
-      <c r="B16" s="517" t="s">
+      <c r="A16" s="525"/>
+      <c r="B16" s="513" t="s">
         <v>228</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -50383,8 +50228,8 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="530"/>
-      <c r="B17" s="520"/>
+      <c r="A17" s="526"/>
+      <c r="B17" s="516"/>
       <c r="C17" s="9" t="s">
         <v>245</v>
       </c>
@@ -50396,8 +50241,8 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A18" s="531"/>
-      <c r="B18" s="518"/>
+      <c r="A18" s="527"/>
+      <c r="B18" s="514"/>
       <c r="C18" s="9" t="s">
         <v>247</v>
       </c>
@@ -50409,15 +50254,15 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A19" s="491" t="s">
+      <c r="A19" s="487" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="491"/>
-      <c r="C19" s="491"/>
-      <c r="D19" s="491"/>
-      <c r="E19" s="491"/>
-      <c r="F19" s="491"/>
-      <c r="G19" s="491"/>
+      <c r="B19" s="487"/>
+      <c r="C19" s="487"/>
+      <c r="D19" s="487"/>
+      <c r="E19" s="487"/>
+      <c r="F19" s="487"/>
+      <c r="G19" s="487"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
@@ -50443,8 +50288,8 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="523"/>
-      <c r="B21" s="523" t="s">
+      <c r="A21" s="519"/>
+      <c r="B21" s="519" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -50458,8 +50303,8 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="31.5" thickBot="1">
-      <c r="A22" s="494"/>
-      <c r="B22" s="527"/>
+      <c r="A22" s="490"/>
+      <c r="B22" s="523"/>
       <c r="C22" s="9" t="s">
         <v>253</v>
       </c>
@@ -50475,15 +50320,15 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A23" s="532" t="s">
+      <c r="A23" s="528" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="495"/>
-      <c r="C23" s="491"/>
-      <c r="D23" s="491"/>
-      <c r="E23" s="491"/>
-      <c r="F23" s="491"/>
-      <c r="G23" s="491"/>
+      <c r="B23" s="491"/>
+      <c r="C23" s="487"/>
+      <c r="D23" s="487"/>
+      <c r="E23" s="487"/>
+      <c r="F23" s="487"/>
+      <c r="G23" s="487"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="5" t="s">
@@ -50509,8 +50354,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="489"/>
-      <c r="B25" s="517"/>
+      <c r="A25" s="485"/>
+      <c r="B25" s="513"/>
       <c r="C25" s="9" t="s">
         <v>174</v>
       </c>
@@ -50526,8 +50371,8 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="489"/>
-      <c r="B26" s="520"/>
+      <c r="A26" s="485"/>
+      <c r="B26" s="516"/>
       <c r="C26" s="9" t="s">
         <v>175</v>
       </c>
@@ -50541,8 +50386,8 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="489"/>
-      <c r="B27" s="520"/>
+      <c r="A27" s="485"/>
+      <c r="B27" s="516"/>
       <c r="C27" s="9" t="s">
         <v>262</v>
       </c>
@@ -50561,7 +50406,7 @@
       <c r="A28" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="520"/>
+      <c r="B28" s="516"/>
       <c r="C28" s="9" t="s">
         <v>267</v>
       </c>
@@ -50577,8 +50422,8 @@
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="523"/>
-      <c r="B29" s="520"/>
+      <c r="A29" s="519"/>
+      <c r="B29" s="516"/>
       <c r="C29" s="9" t="s">
         <v>271</v>
       </c>
@@ -50590,8 +50435,8 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="494"/>
-      <c r="B30" s="520"/>
+      <c r="A30" s="490"/>
+      <c r="B30" s="516"/>
       <c r="C30" s="9" t="s">
         <v>273</v>
       </c>
@@ -50603,8 +50448,8 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="494"/>
-      <c r="B31" s="520"/>
+      <c r="A31" s="490"/>
+      <c r="B31" s="516"/>
       <c r="C31" s="9" t="s">
         <v>275</v>
       </c>
@@ -50616,8 +50461,8 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="524"/>
-      <c r="B32" s="533"/>
+      <c r="A32" s="520"/>
+      <c r="B32" s="529"/>
       <c r="C32" s="9" t="s">
         <v>277</v>
       </c>
@@ -50638,15 +50483,15 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="491" t="s">
+      <c r="A34" s="487" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="491"/>
-      <c r="C34" s="491"/>
-      <c r="D34" s="491"/>
-      <c r="E34" s="491"/>
-      <c r="F34" s="491"/>
-      <c r="G34" s="491"/>
+      <c r="B34" s="487"/>
+      <c r="C34" s="487"/>
+      <c r="D34" s="487"/>
+      <c r="E34" s="487"/>
+      <c r="F34" s="487"/>
+      <c r="G34" s="487"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
@@ -50687,15 +50532,15 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A37" s="528" t="s">
+      <c r="A37" s="524" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="528"/>
-      <c r="C37" s="528"/>
-      <c r="D37" s="528"/>
-      <c r="E37" s="528"/>
-      <c r="F37" s="528"/>
-      <c r="G37" s="528"/>
+      <c r="B37" s="524"/>
+      <c r="C37" s="524"/>
+      <c r="D37" s="524"/>
+      <c r="E37" s="524"/>
+      <c r="F37" s="524"/>
+      <c r="G37" s="524"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
@@ -50722,7 +50567,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1"/>
-      <c r="B39" s="519" t="s">
+      <c r="B39" s="515" t="s">
         <v>281</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -50739,7 +50584,7 @@
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="519"/>
+      <c r="B40" s="515"/>
       <c r="C40" s="9" t="s">
         <v>282</v>
       </c>
@@ -50751,15 +50596,15 @@
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="491" t="s">
+      <c r="A41" s="487" t="s">
         <v>284</v>
       </c>
-      <c r="B41" s="491"/>
-      <c r="C41" s="491"/>
-      <c r="D41" s="491"/>
-      <c r="E41" s="491"/>
-      <c r="F41" s="491"/>
-      <c r="G41" s="491"/>
+      <c r="B41" s="487"/>
+      <c r="C41" s="487"/>
+      <c r="D41" s="487"/>
+      <c r="E41" s="487"/>
+      <c r="F41" s="487"/>
+      <c r="G41" s="487"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
@@ -50800,15 +50645,15 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A44" s="491" t="s">
+      <c r="A44" s="487" t="s">
         <v>288</v>
       </c>
-      <c r="B44" s="491"/>
-      <c r="C44" s="491"/>
-      <c r="D44" s="491"/>
-      <c r="E44" s="491"/>
-      <c r="F44" s="491"/>
-      <c r="G44" s="491"/>
+      <c r="B44" s="487"/>
+      <c r="C44" s="487"/>
+      <c r="D44" s="487"/>
+      <c r="E44" s="487"/>
+      <c r="F44" s="487"/>
+      <c r="G44" s="487"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
@@ -50849,15 +50694,15 @@
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A47" s="491" t="s">
+      <c r="A47" s="487" t="s">
         <v>291</v>
       </c>
-      <c r="B47" s="491"/>
-      <c r="C47" s="491"/>
-      <c r="D47" s="491"/>
-      <c r="E47" s="491"/>
-      <c r="F47" s="491"/>
-      <c r="G47" s="491"/>
+      <c r="B47" s="487"/>
+      <c r="C47" s="487"/>
+      <c r="D47" s="487"/>
+      <c r="E47" s="487"/>
+      <c r="F47" s="487"/>
+      <c r="G47" s="487"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
@@ -50898,15 +50743,15 @@
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A50" s="491" t="s">
+      <c r="A50" s="487" t="s">
         <v>295</v>
       </c>
-      <c r="B50" s="491"/>
-      <c r="C50" s="491"/>
-      <c r="D50" s="491"/>
-      <c r="E50" s="491"/>
-      <c r="F50" s="491"/>
-      <c r="G50" s="491"/>
+      <c r="B50" s="487"/>
+      <c r="C50" s="487"/>
+      <c r="D50" s="487"/>
+      <c r="E50" s="487"/>
+      <c r="F50" s="487"/>
+      <c r="G50" s="487"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="5" t="s">
@@ -51004,12 +50849,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="502" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="508"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="504"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A2" s="36" t="s">
@@ -51310,21 +51155,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A1" s="534" t="s">
+      <c r="A1" s="530" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="535"/>
-      <c r="C1" s="535"/>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-      <c r="L1" s="535"/>
-      <c r="M1" s="536"/>
+      <c r="B1" s="531"/>
+      <c r="C1" s="531"/>
+      <c r="D1" s="531"/>
+      <c r="E1" s="531"/>
+      <c r="F1" s="531"/>
+      <c r="G1" s="531"/>
+      <c r="H1" s="531"/>
+      <c r="I1" s="531"/>
+      <c r="J1" s="531"/>
+      <c r="K1" s="531"/>
+      <c r="L1" s="531"/>
+      <c r="M1" s="532"/>
     </row>
     <row r="2" spans="1:13" s="44" customFormat="1" ht="31.5">
       <c r="A2" s="43" t="s">
@@ -53240,15 +53085,15 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A2" s="537" t="s">
+      <c r="A2" s="533" t="s">
         <v>1043</v>
       </c>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="538"/>
-      <c r="G2" s="538"/>
+      <c r="B2" s="534"/>
+      <c r="C2" s="534"/>
+      <c r="D2" s="534"/>
+      <c r="E2" s="534"/>
+      <c r="F2" s="534"/>
+      <c r="G2" s="534"/>
       <c r="H2" s="144"/>
       <c r="I2" s="144"/>
       <c r="J2" s="144"/>
@@ -53275,23 +53120,23 @@
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1">
       <c r="A4" s="88"/>
-      <c r="B4" s="537" t="s">
+      <c r="B4" s="533" t="s">
         <v>1041</v>
       </c>
-      <c r="C4" s="538"/>
-      <c r="D4" s="538"/>
-      <c r="E4" s="538"/>
-      <c r="F4" s="538"/>
-      <c r="G4" s="539"/>
-      <c r="H4" s="537" t="s">
+      <c r="C4" s="534"/>
+      <c r="D4" s="534"/>
+      <c r="E4" s="534"/>
+      <c r="F4" s="534"/>
+      <c r="G4" s="535"/>
+      <c r="H4" s="533" t="s">
         <v>1042</v>
       </c>
-      <c r="I4" s="538"/>
-      <c r="J4" s="538"/>
-      <c r="K4" s="538"/>
-      <c r="L4" s="538"/>
-      <c r="M4" s="538"/>
-      <c r="N4" s="539"/>
+      <c r="I4" s="534"/>
+      <c r="J4" s="534"/>
+      <c r="K4" s="534"/>
+      <c r="L4" s="534"/>
+      <c r="M4" s="534"/>
+      <c r="N4" s="535"/>
     </row>
     <row r="5" spans="1:14" s="46" customFormat="1" ht="48" thickBot="1">
       <c r="A5" s="23"/>
@@ -53336,7 +53181,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A6" s="550" t="s">
+      <c r="A6" s="546" t="s">
         <v>1018</v>
       </c>
       <c r="B6" s="142" t="s">
@@ -53382,7 +53227,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="46" customFormat="1">
-      <c r="A7" s="551"/>
+      <c r="A7" s="547"/>
       <c r="B7" s="96" t="s">
         <v>1273</v>
       </c>
@@ -53426,7 +53271,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="46" customFormat="1">
-      <c r="A8" s="551"/>
+      <c r="A8" s="547"/>
       <c r="B8" s="96" t="s">
         <v>1165</v>
       </c>
@@ -53450,7 +53295,7 @@
       <c r="N8" s="82"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1">
-      <c r="A9" s="551"/>
+      <c r="A9" s="547"/>
       <c r="B9" s="97" t="s">
         <v>1022</v>
       </c>
@@ -53494,7 +53339,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="46" customFormat="1">
-      <c r="A10" s="551"/>
+      <c r="A10" s="547"/>
       <c r="B10" s="96" t="s">
         <v>1272</v>
       </c>
@@ -53538,7 +53383,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="46" customFormat="1">
-      <c r="A11" s="551"/>
+      <c r="A11" s="547"/>
       <c r="B11" s="96" t="s">
         <v>1166</v>
       </c>
@@ -53562,7 +53407,7 @@
       <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:14" s="46" customFormat="1">
-      <c r="A12" s="551"/>
+      <c r="A12" s="547"/>
       <c r="B12" s="97" t="s">
         <v>734</v>
       </c>
@@ -53606,7 +53451,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="46" customFormat="1">
-      <c r="A13" s="551"/>
+      <c r="A13" s="547"/>
       <c r="B13" s="96" t="s">
         <v>958</v>
       </c>
@@ -53648,7 +53493,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="46" customFormat="1">
-      <c r="A14" s="551"/>
+      <c r="A14" s="547"/>
       <c r="B14" s="96" t="s">
         <v>1167</v>
       </c>
@@ -53670,7 +53515,7 @@
       <c r="N14" s="71"/>
     </row>
     <row r="15" spans="1:14" s="46" customFormat="1">
-      <c r="A15" s="551"/>
+      <c r="A15" s="547"/>
       <c r="B15" s="97">
         <v>5675</v>
       </c>
@@ -53714,7 +53559,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="46" customFormat="1">
-      <c r="A16" s="551"/>
+      <c r="A16" s="547"/>
       <c r="B16" s="97">
         <v>5755</v>
       </c>
@@ -53740,7 +53585,7 @@
       <c r="N16" s="71"/>
     </row>
     <row r="17" spans="1:14" s="46" customFormat="1">
-      <c r="A17" s="551"/>
+      <c r="A17" s="547"/>
       <c r="B17" s="97" t="s">
         <v>960</v>
       </c>
@@ -53764,7 +53609,7 @@
       <c r="N17" s="71"/>
     </row>
     <row r="18" spans="1:14" s="46" customFormat="1">
-      <c r="A18" s="551"/>
+      <c r="A18" s="547"/>
       <c r="B18" s="97" t="s">
         <v>1276</v>
       </c>
@@ -53788,7 +53633,7 @@
       <c r="N18" s="71"/>
     </row>
     <row r="19" spans="1:14" s="46" customFormat="1">
-      <c r="A19" s="551"/>
+      <c r="A19" s="547"/>
       <c r="B19" s="97">
         <v>4112</v>
       </c>
@@ -53814,7 +53659,7 @@
       <c r="N19" s="71"/>
     </row>
     <row r="20" spans="1:14" s="46" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A20" s="552"/>
+      <c r="A20" s="548"/>
       <c r="B20" s="96" t="s">
         <v>1019</v>
       </c>
@@ -53834,7 +53679,7 @@
       <c r="N20" s="71"/>
     </row>
     <row r="21" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A21" s="543" t="s">
+      <c r="A21" s="539" t="s">
         <v>603</v>
       </c>
       <c r="B21" s="97" t="s">
@@ -53862,7 +53707,7 @@
       <c r="N21" s="71"/>
     </row>
     <row r="22" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A22" s="543"/>
+      <c r="A22" s="539"/>
       <c r="B22" s="97" t="s">
         <v>608</v>
       </c>
@@ -53888,7 +53733,7 @@
       <c r="N22" s="71"/>
     </row>
     <row r="23" spans="1:14" s="46" customFormat="1">
-      <c r="A23" s="543"/>
+      <c r="A23" s="539"/>
       <c r="B23" s="97" t="s">
         <v>611</v>
       </c>
@@ -53914,7 +53759,7 @@
       <c r="N23" s="71"/>
     </row>
     <row r="24" spans="1:14" s="46" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A24" s="544"/>
+      <c r="A24" s="540"/>
       <c r="B24" s="97" t="s">
         <v>1279</v>
       </c>
@@ -53940,7 +53785,7 @@
       <c r="N24" s="71"/>
     </row>
     <row r="25" spans="1:14" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="541" t="s">
+      <c r="A25" s="537" t="s">
         <v>613</v>
       </c>
       <c r="B25" s="97" t="s">
@@ -53970,7 +53815,7 @@
       <c r="N25" s="71"/>
     </row>
     <row r="26" spans="1:14" s="46" customFormat="1">
-      <c r="A26" s="541"/>
+      <c r="A26" s="537"/>
       <c r="B26" s="97" t="s">
         <v>1048</v>
       </c>
@@ -53996,7 +53841,7 @@
       <c r="N26" s="71"/>
     </row>
     <row r="27" spans="1:14" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="556" t="s">
+      <c r="A27" s="552" t="s">
         <v>614</v>
       </c>
       <c r="B27" s="118" t="s">
@@ -54026,7 +53871,7 @@
       <c r="N27" s="71"/>
     </row>
     <row r="28" spans="1:14" s="46" customFormat="1">
-      <c r="A28" s="556"/>
+      <c r="A28" s="552"/>
       <c r="B28" s="118" t="s">
         <v>616</v>
       </c>
@@ -54052,7 +53897,7 @@
       <c r="N28" s="71"/>
     </row>
     <row r="29" spans="1:14" s="46" customFormat="1">
-      <c r="A29" s="556"/>
+      <c r="A29" s="552"/>
       <c r="B29" s="118" t="s">
         <v>615</v>
       </c>
@@ -54080,7 +53925,7 @@
       <c r="N29" s="71"/>
     </row>
     <row r="30" spans="1:14" s="46" customFormat="1">
-      <c r="A30" s="556"/>
+      <c r="A30" s="552"/>
       <c r="B30" s="118" t="s">
         <v>615</v>
       </c>
@@ -54108,7 +53953,7 @@
       <c r="N30" s="71"/>
     </row>
     <row r="31" spans="1:14" s="46" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A31" s="557"/>
+      <c r="A31" s="553"/>
       <c r="B31" s="118" t="s">
         <v>615</v>
       </c>
@@ -54136,7 +53981,7 @@
       <c r="N31" s="71"/>
     </row>
     <row r="32" spans="1:14" s="46" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="553" t="s">
+      <c r="A32" s="549" t="s">
         <v>308</v>
       </c>
       <c r="B32" s="92" t="s">
@@ -54166,7 +54011,7 @@
       <c r="N32" s="71"/>
     </row>
     <row r="33" spans="1:14" s="46" customFormat="1" ht="49.5">
-      <c r="A33" s="554"/>
+      <c r="A33" s="550"/>
       <c r="B33" s="92" t="s">
         <v>1053</v>
       </c>
@@ -54192,7 +54037,7 @@
       <c r="N33" s="71"/>
     </row>
     <row r="34" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A34" s="554"/>
+      <c r="A34" s="550"/>
       <c r="B34" s="41" t="s">
         <v>1259</v>
       </c>
@@ -54218,7 +54063,7 @@
       <c r="N34" s="71"/>
     </row>
     <row r="35" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A35" s="554"/>
+      <c r="A35" s="550"/>
       <c r="B35" s="77" t="s">
         <v>1052</v>
       </c>
@@ -54246,7 +54091,7 @@
       <c r="N35" s="71"/>
     </row>
     <row r="36" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A36" s="554"/>
+      <c r="A36" s="550"/>
       <c r="B36" s="77" t="s">
         <v>1292</v>
       </c>
@@ -54270,7 +54115,7 @@
       <c r="N36" s="71"/>
     </row>
     <row r="37" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A37" s="554"/>
+      <c r="A37" s="550"/>
       <c r="B37" s="140" t="s">
         <v>1253</v>
       </c>
@@ -54296,7 +54141,7 @@
       <c r="N37" s="71"/>
     </row>
     <row r="38" spans="1:14" s="46" customFormat="1" ht="30">
-      <c r="A38" s="554"/>
+      <c r="A38" s="550"/>
       <c r="B38" s="140" t="s">
         <v>1257</v>
       </c>
@@ -54316,7 +54161,7 @@
       <c r="N38" s="71"/>
     </row>
     <row r="39" spans="1:14" s="46" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A39" s="555"/>
+      <c r="A39" s="551"/>
       <c r="B39" s="77" t="s">
         <v>1170</v>
       </c>
@@ -54342,7 +54187,7 @@
       <c r="N39" s="71"/>
     </row>
     <row r="40" spans="1:14" s="46" customFormat="1">
-      <c r="A40" s="542" t="s">
+      <c r="A40" s="538" t="s">
         <v>1045</v>
       </c>
       <c r="B40" s="97" t="s">
@@ -54370,7 +54215,7 @@
       <c r="N40" s="71"/>
     </row>
     <row r="41" spans="1:14" s="46" customFormat="1">
-      <c r="A41" s="543"/>
+      <c r="A41" s="539"/>
       <c r="B41" s="97" t="s">
         <v>1024</v>
       </c>
@@ -54396,7 +54241,7 @@
       <c r="N41" s="71"/>
     </row>
     <row r="42" spans="1:14" s="46" customFormat="1">
-      <c r="A42" s="543"/>
+      <c r="A42" s="539"/>
       <c r="B42" s="97" t="s">
         <v>1025</v>
       </c>
@@ -54422,7 +54267,7 @@
       <c r="N42" s="71"/>
     </row>
     <row r="43" spans="1:14" s="46" customFormat="1">
-      <c r="A43" s="543"/>
+      <c r="A43" s="539"/>
       <c r="B43" s="97" t="s">
         <v>1021</v>
       </c>
@@ -54448,7 +54293,7 @@
       <c r="N43" s="71"/>
     </row>
     <row r="44" spans="1:14" s="46" customFormat="1">
-      <c r="A44" s="543"/>
+      <c r="A44" s="539"/>
       <c r="B44" s="97" t="s">
         <v>341</v>
       </c>
@@ -54476,7 +54321,7 @@
       <c r="N44" s="71"/>
     </row>
     <row r="45" spans="1:14" s="46" customFormat="1">
-      <c r="A45" s="543"/>
+      <c r="A45" s="539"/>
       <c r="B45" s="97" t="s">
         <v>1141</v>
       </c>
@@ -54502,7 +54347,7 @@
       <c r="N45" s="71"/>
     </row>
     <row r="46" spans="1:14" s="46" customFormat="1">
-      <c r="A46" s="543"/>
+      <c r="A46" s="539"/>
       <c r="B46" s="97" t="s">
         <v>633</v>
       </c>
@@ -54528,7 +54373,7 @@
       <c r="N46" s="71"/>
     </row>
     <row r="47" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A47" s="543"/>
+      <c r="A47" s="539"/>
       <c r="B47" s="92" t="s">
         <v>1049</v>
       </c>
@@ -54554,7 +54399,7 @@
       <c r="N47" s="71"/>
     </row>
     <row r="48" spans="1:14" s="46" customFormat="1">
-      <c r="A48" s="543"/>
+      <c r="A48" s="539"/>
       <c r="B48" s="97" t="s">
         <v>636</v>
       </c>
@@ -54580,7 +54425,7 @@
       <c r="N48" s="71"/>
     </row>
     <row r="49" spans="1:14" s="46" customFormat="1">
-      <c r="A49" s="543"/>
+      <c r="A49" s="539"/>
       <c r="B49" s="97" t="s">
         <v>1176</v>
       </c>
@@ -54604,7 +54449,7 @@
       <c r="N49" s="71"/>
     </row>
     <row r="50" spans="1:14" s="46" customFormat="1">
-      <c r="A50" s="543"/>
+      <c r="A50" s="539"/>
       <c r="B50" s="97" t="s">
         <v>975</v>
       </c>
@@ -54628,7 +54473,7 @@
       <c r="N50" s="71"/>
     </row>
     <row r="51" spans="1:14" s="46" customFormat="1">
-      <c r="A51" s="543"/>
+      <c r="A51" s="539"/>
       <c r="B51" s="97" t="s">
         <v>639</v>
       </c>
@@ -54652,7 +54497,7 @@
       <c r="N51" s="71"/>
     </row>
     <row r="52" spans="1:14" s="46" customFormat="1">
-      <c r="A52" s="543"/>
+      <c r="A52" s="539"/>
       <c r="B52" s="97" t="s">
         <v>1177</v>
       </c>
@@ -54674,7 +54519,7 @@
       <c r="N52" s="71"/>
     </row>
     <row r="53" spans="1:14" s="46" customFormat="1">
-      <c r="A53" s="543"/>
+      <c r="A53" s="539"/>
       <c r="B53" s="97" t="s">
         <v>981</v>
       </c>
@@ -54698,7 +54543,7 @@
       <c r="N53" s="71"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="543"/>
+      <c r="A54" s="539"/>
       <c r="B54" s="10" t="s">
         <v>983</v>
       </c>
@@ -54722,7 +54567,7 @@
       <c r="N54" s="47"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="543"/>
+      <c r="A55" s="539"/>
       <c r="B55" s="10" t="s">
         <v>983</v>
       </c>
@@ -54746,7 +54591,7 @@
       <c r="N55" s="47"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="543"/>
+      <c r="A56" s="539"/>
       <c r="B56" s="10" t="s">
         <v>985</v>
       </c>
@@ -54772,7 +54617,7 @@
       <c r="N56" s="47"/>
     </row>
     <row r="57" spans="1:14" ht="33">
-      <c r="A57" s="543"/>
+      <c r="A57" s="539"/>
       <c r="B57" s="10" t="s">
         <v>985</v>
       </c>
@@ -54796,7 +54641,7 @@
       <c r="N57" s="47"/>
     </row>
     <row r="58" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A58" s="544"/>
+      <c r="A58" s="540"/>
       <c r="B58" s="10" t="s">
         <v>983</v>
       </c>
@@ -54822,7 +54667,7 @@
       <c r="N58" s="47"/>
     </row>
     <row r="59" spans="1:14" s="46" customFormat="1">
-      <c r="A59" s="545" t="s">
+      <c r="A59" s="541" t="s">
         <v>1294</v>
       </c>
       <c r="B59" s="97" t="s">
@@ -54856,7 +54701,7 @@
       <c r="N59" s="71"/>
     </row>
     <row r="60" spans="1:14" s="46" customFormat="1">
-      <c r="A60" s="546"/>
+      <c r="A60" s="542"/>
       <c r="B60" s="97" t="s">
         <v>1027</v>
       </c>
@@ -54878,7 +54723,7 @@
       <c r="N60" s="71"/>
     </row>
     <row r="61" spans="1:14" s="46" customFormat="1">
-      <c r="A61" s="546"/>
+      <c r="A61" s="542"/>
       <c r="B61" s="97" t="s">
         <v>1028</v>
       </c>
@@ -54898,7 +54743,7 @@
       <c r="N61" s="71"/>
     </row>
     <row r="62" spans="1:14" s="46" customFormat="1">
-      <c r="A62" s="547"/>
+      <c r="A62" s="543"/>
       <c r="B62" s="97" t="s">
         <v>1029</v>
       </c>
@@ -54918,7 +54763,7 @@
       <c r="N62" s="71"/>
     </row>
     <row r="63" spans="1:14" s="46" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A63" s="548"/>
+      <c r="A63" s="544"/>
       <c r="B63" s="97" t="s">
         <v>1030</v>
       </c>
@@ -54938,7 +54783,7 @@
       <c r="N63" s="71"/>
     </row>
     <row r="64" spans="1:14" s="46" customFormat="1">
-      <c r="A64" s="549" t="s">
+      <c r="A64" s="545" t="s">
         <v>1046</v>
       </c>
       <c r="B64" s="97" t="s">
@@ -54964,7 +54809,7 @@
       <c r="N64" s="71"/>
     </row>
     <row r="65" spans="1:14" s="46" customFormat="1">
-      <c r="A65" s="549"/>
+      <c r="A65" s="545"/>
       <c r="B65" s="97" t="s">
         <v>1032</v>
       </c>
@@ -54988,7 +54833,7 @@
       <c r="N65" s="71"/>
     </row>
     <row r="66" spans="1:14" s="46" customFormat="1">
-      <c r="A66" s="549"/>
+      <c r="A66" s="545"/>
       <c r="B66" s="97" t="s">
         <v>1033</v>
       </c>
@@ -55012,7 +54857,7 @@
       <c r="N66" s="71"/>
     </row>
     <row r="67" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A67" s="549"/>
+      <c r="A67" s="545"/>
       <c r="B67" s="97" t="s">
         <v>1034</v>
       </c>
@@ -55036,7 +54881,7 @@
       <c r="N67" s="71"/>
     </row>
     <row r="68" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A68" s="549"/>
+      <c r="A68" s="545"/>
       <c r="B68" s="97" t="s">
         <v>1035</v>
       </c>
@@ -55060,7 +54905,7 @@
       <c r="N68" s="71"/>
     </row>
     <row r="69" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A69" s="549"/>
+      <c r="A69" s="545"/>
       <c r="B69" s="97" t="s">
         <v>1036</v>
       </c>
@@ -55084,7 +54929,7 @@
       <c r="N69" s="71"/>
     </row>
     <row r="70" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A70" s="549"/>
+      <c r="A70" s="545"/>
       <c r="B70" s="97" t="s">
         <v>1037</v>
       </c>
@@ -55108,7 +54953,7 @@
       <c r="N70" s="71"/>
     </row>
     <row r="71" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A71" s="549"/>
+      <c r="A71" s="545"/>
       <c r="B71" s="97" t="s">
         <v>1038</v>
       </c>
@@ -55132,7 +54977,7 @@
       <c r="N71" s="71"/>
     </row>
     <row r="72" spans="1:14" s="46" customFormat="1">
-      <c r="A72" s="549"/>
+      <c r="A72" s="545"/>
       <c r="B72" s="97" t="s">
         <v>986</v>
       </c>
@@ -55156,7 +55001,7 @@
       <c r="N72" s="71"/>
     </row>
     <row r="73" spans="1:14" s="46" customFormat="1">
-      <c r="A73" s="549"/>
+      <c r="A73" s="545"/>
       <c r="B73" s="97" t="s">
         <v>988</v>
       </c>
@@ -55180,7 +55025,7 @@
       <c r="N73" s="71"/>
     </row>
     <row r="74" spans="1:14" s="46" customFormat="1">
-      <c r="A74" s="549"/>
+      <c r="A74" s="545"/>
       <c r="B74" s="97" t="s">
         <v>1039</v>
       </c>
@@ -55204,7 +55049,7 @@
       <c r="N74" s="71"/>
     </row>
     <row r="75" spans="1:14" s="46" customFormat="1">
-      <c r="A75" s="549"/>
+      <c r="A75" s="545"/>
       <c r="B75" s="97" t="s">
         <v>1040</v>
       </c>
@@ -55228,7 +55073,7 @@
       <c r="N75" s="71"/>
     </row>
     <row r="76" spans="1:14" s="46" customFormat="1">
-      <c r="A76" s="549" t="s">
+      <c r="A76" s="545" t="s">
         <v>1047</v>
       </c>
       <c r="B76" s="97" t="s">
@@ -55254,7 +55099,7 @@
       <c r="N76" s="71"/>
     </row>
     <row r="77" spans="1:14" s="46" customFormat="1">
-      <c r="A77" s="549"/>
+      <c r="A77" s="545"/>
       <c r="B77" s="97" t="s">
         <v>651</v>
       </c>
@@ -55280,7 +55125,7 @@
       <c r="N77" s="71"/>
     </row>
     <row r="78" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A78" s="549"/>
+      <c r="A78" s="545"/>
       <c r="B78" s="97" t="s">
         <v>651</v>
       </c>
@@ -55324,7 +55169,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" s="46" customFormat="1">
-      <c r="A79" s="549"/>
+      <c r="A79" s="545"/>
       <c r="B79" s="97" t="s">
         <v>658</v>
       </c>
@@ -55348,7 +55193,7 @@
       <c r="N79" s="71"/>
     </row>
     <row r="80" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A80" s="549"/>
+      <c r="A80" s="545"/>
       <c r="B80" s="92" t="s">
         <v>1051</v>
       </c>
@@ -55376,7 +55221,7 @@
       <c r="N80" s="71"/>
     </row>
     <row r="81" spans="1:14" s="46" customFormat="1">
-      <c r="A81" s="549"/>
+      <c r="A81" s="545"/>
       <c r="B81" s="97" t="s">
         <v>993</v>
       </c>
@@ -55400,7 +55245,7 @@
       <c r="N81" s="71"/>
     </row>
     <row r="82" spans="1:14" s="46" customFormat="1">
-      <c r="A82" s="549"/>
+      <c r="A82" s="545"/>
       <c r="B82" s="97" t="s">
         <v>995</v>
       </c>
@@ -55424,7 +55269,7 @@
       <c r="N82" s="71"/>
     </row>
     <row r="83" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A83" s="549"/>
+      <c r="A83" s="545"/>
       <c r="B83" s="97" t="s">
         <v>1113</v>
       </c>
@@ -55468,7 +55313,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" s="46" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A84" s="549"/>
+      <c r="A84" s="545"/>
       <c r="B84" s="97" t="s">
         <v>1113</v>
       </c>
@@ -55512,7 +55357,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" s="46" customFormat="1">
-      <c r="A85" s="550" t="s">
+      <c r="A85" s="546" t="s">
         <v>663</v>
       </c>
       <c r="B85" s="97" t="s">
@@ -55542,7 +55387,7 @@
       <c r="N85" s="71"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="551"/>
+      <c r="A86" s="547"/>
       <c r="B86" s="10" t="s">
         <v>1295</v>
       </c>
@@ -55570,7 +55415,7 @@
       <c r="N86" s="47"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="551"/>
+      <c r="A87" s="547"/>
       <c r="B87" s="10" t="s">
         <v>667</v>
       </c>
@@ -55596,7 +55441,7 @@
       <c r="N87" s="47"/>
     </row>
     <row r="88" spans="1:14" s="46" customFormat="1" ht="33">
-      <c r="A88" s="551"/>
+      <c r="A88" s="547"/>
       <c r="B88" s="92" t="s">
         <v>1050</v>
       </c>
@@ -55622,7 +55467,7 @@
       <c r="N88" s="71"/>
     </row>
     <row r="89" spans="1:14" s="46" customFormat="1">
-      <c r="A89" s="551"/>
+      <c r="A89" s="547"/>
       <c r="B89" s="97" t="s">
         <v>1000</v>
       </c>
@@ -55646,7 +55491,7 @@
       <c r="N89" s="71"/>
     </row>
     <row r="90" spans="1:14" s="46" customFormat="1">
-      <c r="A90" s="551"/>
+      <c r="A90" s="547"/>
       <c r="B90" s="97" t="s">
         <v>1000</v>
       </c>
@@ -55670,7 +55515,7 @@
       <c r="N90" s="71"/>
     </row>
     <row r="91" spans="1:14" s="46" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A91" s="552"/>
+      <c r="A91" s="548"/>
       <c r="B91" s="97" t="s">
         <v>1297</v>
       </c>
@@ -55708,7 +55553,7 @@
       <c r="G94" s="46"/>
     </row>
     <row r="95" spans="1:14" s="46" customFormat="1">
-      <c r="A95" s="540"/>
+      <c r="A95" s="536"/>
       <c r="B95" s="99"/>
       <c r="C95" s="72"/>
       <c r="D95" s="72"/>
@@ -55717,7 +55562,7 @@
       <c r="G95" s="72"/>
     </row>
     <row r="96" spans="1:14" s="46" customFormat="1">
-      <c r="A96" s="540"/>
+      <c r="A96" s="536"/>
       <c r="B96" s="98"/>
       <c r="C96" s="73"/>
       <c r="D96" s="74"/>
@@ -55725,7 +55570,7 @@
       <c r="F96" s="73"/>
     </row>
     <row r="97" spans="1:7" s="46" customFormat="1">
-      <c r="A97" s="540"/>
+      <c r="A97" s="536"/>
       <c r="B97" s="98"/>
       <c r="C97" s="73"/>
       <c r="D97" s="74"/>
@@ -55733,7 +55578,7 @@
       <c r="F97" s="73"/>
     </row>
     <row r="98" spans="1:7" s="46" customFormat="1">
-      <c r="A98" s="540"/>
+      <c r="A98" s="536"/>
       <c r="B98" s="98"/>
       <c r="C98" s="73"/>
       <c r="D98" s="74"/>
@@ -55742,7 +55587,7 @@
       <c r="G98" s="75"/>
     </row>
     <row r="99" spans="1:7" s="46" customFormat="1">
-      <c r="A99" s="540"/>
+      <c r="A99" s="536"/>
       <c r="B99" s="98"/>
       <c r="C99" s="73"/>
       <c r="D99" s="74"/>
@@ -55751,7 +55596,7 @@
       <c r="G99" s="75"/>
     </row>
     <row r="100" spans="1:7" s="46" customFormat="1">
-      <c r="A100" s="540"/>
+      <c r="A100" s="536"/>
       <c r="B100" s="98"/>
       <c r="C100" s="73"/>
       <c r="D100" s="74"/>
@@ -56102,15 +55947,15 @@
       <c r="H1" s="300"/>
     </row>
     <row r="2" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B2" s="558" t="s">
+      <c r="B2" s="554" t="s">
         <v>2128</v>
       </c>
-      <c r="C2" s="558"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="558"/>
-      <c r="F2" s="558"/>
-      <c r="G2" s="558"/>
-      <c r="H2" s="558"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="554"/>
+      <c r="E2" s="554"/>
+      <c r="F2" s="554"/>
+      <c r="G2" s="554"/>
+      <c r="H2" s="554"/>
     </row>
     <row r="3" spans="2:8" ht="18.75" customHeight="1">
       <c r="B3" s="301" t="s">
